--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Parkinson_withoutdupl_75_ido.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Parkinson_withoutdupl_75_ido.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,5663 +394,5075 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1507902397031373</v>
+        <v>0.1769777811965257</v>
       </c>
       <c r="C2">
-        <v>0.1159059070671356</v>
+        <v>0.1292657945287319</v>
       </c>
       <c r="D2">
-        <v>0.1162731332053024</v>
+        <v>0.1353962619789656</v>
       </c>
       <c r="E2">
-        <v>0.1026953386379976</v>
+        <v>0.1166010597171459</v>
       </c>
       <c r="F2">
-        <v>0.1658398820588859</v>
+        <v>0.1966138953263003</v>
       </c>
       <c r="G2">
-        <v>0.1054188980566796</v>
+        <v>0.1202098213618489</v>
       </c>
       <c r="H2">
-        <v>0.1136719407455134</v>
-      </c>
-      <c r="I2">
-        <v>0.1294046605253483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1249353858904817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1410142511848647</v>
+        <v>0.1600795615315003</v>
       </c>
       <c r="C3">
-        <v>0.1239020495521067</v>
+        <v>0.1389798085079673</v>
       </c>
       <c r="D3">
-        <v>0.1323838385771829</v>
+        <v>0.1488913211642063</v>
       </c>
       <c r="E3">
-        <v>0.1548103125568431</v>
+        <v>0.1714038706936759</v>
       </c>
       <c r="F3">
-        <v>0.1503726547456612</v>
+        <v>0.1696569192972668</v>
       </c>
       <c r="G3">
-        <v>0.08878933282549113</v>
+        <v>0.09988231503967104</v>
       </c>
       <c r="H3">
-        <v>0.09900181787655732</v>
-      </c>
-      <c r="I3">
-        <v>0.109725742681293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.1111062037657124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1436993633298756</v>
+        <v>0.1620493515955289</v>
       </c>
       <c r="C4">
-        <v>0.1323436005233001</v>
+        <v>0.1521961377199922</v>
       </c>
       <c r="D4">
-        <v>0.1113672376079539</v>
+        <v>0.1296352895500281</v>
       </c>
       <c r="E4">
-        <v>0.120186564270263</v>
+        <v>0.1405982522107827</v>
       </c>
       <c r="F4">
-        <v>0.1197812848707437</v>
+        <v>0.1365563445096278</v>
       </c>
       <c r="G4">
-        <v>0.1077179436167062</v>
+        <v>0.128655041317921</v>
       </c>
       <c r="H4">
-        <v>0.1311476791794353</v>
-      </c>
-      <c r="I4">
-        <v>0.1337563266017222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1503095830961193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1304263570961932</v>
+        <v>0.1465676245693988</v>
       </c>
       <c r="C5">
-        <v>0.1226171569410427</v>
+        <v>0.1372411243781983</v>
       </c>
       <c r="D5">
-        <v>0.1279409090552557</v>
+        <v>0.1475739405913616</v>
       </c>
       <c r="E5">
-        <v>0.1373905637206878</v>
+        <v>0.1587103200502992</v>
       </c>
       <c r="F5">
-        <v>0.1354139206270824</v>
+        <v>0.1530684310509887</v>
       </c>
       <c r="G5">
-        <v>0.1006798859703663</v>
+        <v>0.1140016272379627</v>
       </c>
       <c r="H5">
-        <v>0.1254672517471994</v>
-      </c>
-      <c r="I5">
-        <v>0.1200639548421725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.1428369321217907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1163833831630996</v>
+        <v>0.1279154669543715</v>
       </c>
       <c r="C6">
-        <v>0.07610930246594155</v>
+        <v>0.08276288514464701</v>
       </c>
       <c r="D6">
-        <v>0.1919104807805968</v>
+        <v>0.2202852651433886</v>
       </c>
       <c r="E6">
-        <v>0.1659959137769688</v>
+        <v>0.1882225509502193</v>
       </c>
       <c r="F6">
-        <v>0.1504467066058565</v>
+        <v>0.1755193275418809</v>
       </c>
       <c r="G6">
-        <v>0.0879893984491003</v>
+        <v>0.09634543984219286</v>
       </c>
       <c r="H6">
-        <v>0.09889399007476996</v>
-      </c>
-      <c r="I6">
-        <v>0.1122708246836663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1089490644232999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1459449274858151</v>
+        <v>0.1663797854624209</v>
       </c>
       <c r="C7">
-        <v>0.1258360109519391</v>
+        <v>0.1436171802283361</v>
       </c>
       <c r="D7">
-        <v>0.1100706744125773</v>
+        <v>0.128884890670482</v>
       </c>
       <c r="E7">
-        <v>0.1252979517162507</v>
+        <v>0.1465851276424084</v>
       </c>
       <c r="F7">
-        <v>0.1229587547712095</v>
+        <v>0.1418490070026397</v>
       </c>
       <c r="G7">
-        <v>0.1081349095349716</v>
+        <v>0.1275993110238984</v>
       </c>
       <c r="H7">
-        <v>0.1266647573043153</v>
-      </c>
-      <c r="I7">
-        <v>0.1350920138229214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1450846979698144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1174728078001287</v>
+        <v>0.1417824457156941</v>
       </c>
       <c r="C8">
-        <v>0.1390350640191469</v>
+        <v>0.1645208110868478</v>
       </c>
       <c r="D8">
-        <v>0.1506276451263474</v>
+        <v>0.184259756220836</v>
       </c>
       <c r="E8">
-        <v>0.1528562064941715</v>
+        <v>0.1782042321820768</v>
       </c>
       <c r="F8">
-        <v>0.04264545691112791</v>
+        <v>0.04944422555448889</v>
       </c>
       <c r="G8">
-        <v>0.08964547915467846</v>
+        <v>0.1018310904737344</v>
       </c>
       <c r="H8">
-        <v>0.1543889586407467</v>
-      </c>
-      <c r="I8">
-        <v>0.1533283818536524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1799574387663221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1156732370210904</v>
+        <v>0.1331860584309636</v>
       </c>
       <c r="C9">
-        <v>0.1280446753167768</v>
+        <v>0.1517093921090127</v>
       </c>
       <c r="D9">
-        <v>0.1194880179912076</v>
+        <v>0.1386280698427103</v>
       </c>
       <c r="E9">
-        <v>0.1234393939630188</v>
+        <v>0.1400550299566333</v>
       </c>
       <c r="F9">
-        <v>0.1199578029346529</v>
+        <v>0.146493942915395</v>
       </c>
       <c r="G9">
-        <v>0.1012579149788808</v>
+        <v>0.1177526390770375</v>
       </c>
       <c r="H9">
-        <v>0.1497221414343488</v>
-      </c>
-      <c r="I9">
-        <v>0.142416816360024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1721748676682475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1190079965176242</v>
+        <v>0.1341503343215557</v>
       </c>
       <c r="C10">
-        <v>0.1236064866782875</v>
+        <v>0.1435971405808159</v>
       </c>
       <c r="D10">
-        <v>0.1160570762665704</v>
+        <v>0.1342711395588382</v>
       </c>
       <c r="E10">
-        <v>0.1279339161037475</v>
+        <v>0.1453113982985669</v>
       </c>
       <c r="F10">
-        <v>0.1359191603068437</v>
+        <v>0.1516171679652044</v>
       </c>
       <c r="G10">
-        <v>0.1209709539828535</v>
+        <v>0.1395223544436384</v>
       </c>
       <c r="H10">
-        <v>0.1329261575562725</v>
-      </c>
-      <c r="I10">
-        <v>0.1235782525878007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1515304648313806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1571514032911249</v>
+        <v>0.1730562929194926</v>
       </c>
       <c r="C11">
-        <v>0.1210190776678951</v>
+        <v>0.1393510372574343</v>
       </c>
       <c r="D11">
-        <v>0.1130132458403669</v>
+        <v>0.1268796178772142</v>
       </c>
       <c r="E11">
-        <v>0.1292370171229326</v>
+        <v>0.143263514505479</v>
       </c>
       <c r="F11">
-        <v>0.1499541252932721</v>
+        <v>0.1701026516965887</v>
       </c>
       <c r="G11">
-        <v>0.1034793564830506</v>
+        <v>0.1189277948688668</v>
       </c>
       <c r="H11">
-        <v>0.112765847232843</v>
-      </c>
-      <c r="I11">
-        <v>0.1133799270685149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.1284190908749245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1423246838673373</v>
+        <v>0.1590317082841557</v>
       </c>
       <c r="C12">
-        <v>0.1253147303555167</v>
+        <v>0.1418439292387491</v>
       </c>
       <c r="D12">
-        <v>0.1237209342280709</v>
+        <v>0.1407675177437437</v>
       </c>
       <c r="E12">
-        <v>0.1424417607243245</v>
+        <v>0.1602898728098502</v>
       </c>
       <c r="F12">
-        <v>0.1463711310491295</v>
+        <v>0.1648711152252455</v>
       </c>
       <c r="G12">
-        <v>0.09250203282870992</v>
+        <v>0.1029344517750578</v>
       </c>
       <c r="H12">
-        <v>0.1144956881813134</v>
-      </c>
-      <c r="I12">
-        <v>0.1128290387655978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1302614049231981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1299031674107375</v>
+        <v>0.1551659685417714</v>
       </c>
       <c r="C13">
-        <v>0.122179922147367</v>
+        <v>0.1373239279831114</v>
       </c>
       <c r="D13">
-        <v>0.1155887187283451</v>
+        <v>0.1321422070222944</v>
       </c>
       <c r="E13">
-        <v>0.1201892493927397</v>
+        <v>0.1361570717142905</v>
       </c>
       <c r="F13">
-        <v>0.1551732636839478</v>
+        <v>0.1849054719979462</v>
       </c>
       <c r="G13">
-        <v>0.1055083888730072</v>
+        <v>0.1216406576553185</v>
       </c>
       <c r="H13">
-        <v>0.1143365204355565</v>
-      </c>
-      <c r="I13">
-        <v>0.1371207693282992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1326646950852675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1244416138969319</v>
+        <v>0.1444295914963619</v>
       </c>
       <c r="C14">
-        <v>0.1264200635103995</v>
+        <v>0.1459442635282621</v>
       </c>
       <c r="D14">
-        <v>0.1185850792466166</v>
+        <v>0.1346014561853659</v>
       </c>
       <c r="E14">
-        <v>0.119605856361155</v>
+        <v>0.1367865954410793</v>
       </c>
       <c r="F14">
-        <v>0.151117434781993</v>
+        <v>0.1771149952745818</v>
       </c>
       <c r="G14">
-        <v>0.1026313755413462</v>
+        <v>0.1191253337942709</v>
       </c>
       <c r="H14">
-        <v>0.1249452593108809</v>
-      </c>
-      <c r="I14">
-        <v>0.132253317350677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.141997764280078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1104935260255037</v>
+        <v>0.1271602961982434</v>
       </c>
       <c r="C15">
-        <v>0.1445359552113889</v>
+        <v>0.1675191596318054</v>
       </c>
       <c r="D15">
-        <v>0.1120038249782173</v>
+        <v>0.1305320980784869</v>
       </c>
       <c r="E15">
-        <v>0.1222450279958331</v>
+        <v>0.1420180743212187</v>
       </c>
       <c r="F15">
-        <v>0.09068883114728293</v>
+        <v>0.1144765363805166</v>
       </c>
       <c r="G15">
-        <v>0.1412556550080618</v>
+        <v>0.158184283348195</v>
       </c>
       <c r="H15">
-        <v>0.1388509381725481</v>
-      </c>
-      <c r="I15">
-        <v>0.1399262414611641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1601095520415339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1168023256307952</v>
+        <v>0.1365630804753315</v>
       </c>
       <c r="C16">
-        <v>0.1330760970240382</v>
+        <v>0.1533085995191282</v>
       </c>
       <c r="D16">
-        <v>0.115989173409132</v>
+        <v>0.1325533096287108</v>
       </c>
       <c r="E16">
-        <v>0.1213221005304053</v>
+        <v>0.1410433025895004</v>
       </c>
       <c r="F16">
-        <v>0.1302819872501966</v>
+        <v>0.1584805579457375</v>
       </c>
       <c r="G16">
-        <v>0.08985847880470603</v>
+        <v>0.09596307770413033</v>
       </c>
       <c r="H16">
-        <v>0.1559778746464708</v>
-      </c>
-      <c r="I16">
-        <v>0.1366919627042558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1820880721374612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1057720102156053</v>
+        <v>0.1236236789217142</v>
       </c>
       <c r="C17">
-        <v>0.1331683882027976</v>
+        <v>0.1537164994527439</v>
       </c>
       <c r="D17">
-        <v>0.1254303030165489</v>
+        <v>0.1436446554683451</v>
       </c>
       <c r="E17">
-        <v>0.1274938669956545</v>
+        <v>0.1461306872109708</v>
       </c>
       <c r="F17">
-        <v>0.1039150101338905</v>
+        <v>0.1225139459019275</v>
       </c>
       <c r="G17">
-        <v>0.1284608637814054</v>
+        <v>0.1468960553344651</v>
       </c>
       <c r="H17">
-        <v>0.1421298734508818</v>
-      </c>
-      <c r="I17">
-        <v>0.1336296842032159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1634744777098336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.08321950608270799</v>
+        <v>0.08820187082313245</v>
       </c>
       <c r="C18">
-        <v>0.08003875993996282</v>
+        <v>0.0858936081267228</v>
       </c>
       <c r="D18">
-        <v>0.225263052813554</v>
+        <v>0.241746222535333</v>
       </c>
       <c r="E18">
-        <v>0.1845628006926757</v>
+        <v>0.2112066576441323</v>
       </c>
       <c r="F18">
-        <v>0.1667282640729681</v>
+        <v>0.1855640082489356</v>
       </c>
       <c r="G18">
-        <v>0.08828177775018944</v>
+        <v>0.09927925107235591</v>
       </c>
       <c r="H18">
-        <v>0.08173436546192663</v>
-      </c>
-      <c r="I18">
-        <v>0.09017147318601539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.08810838154938809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1439521741609909</v>
+        <v>0.1654681115525177</v>
       </c>
       <c r="C19">
-        <v>0.1208358279605476</v>
+        <v>0.1390683612215708</v>
       </c>
       <c r="D19">
-        <v>0.1160604411219876</v>
+        <v>0.1328882913899671</v>
       </c>
       <c r="E19">
-        <v>0.1084849017187985</v>
+        <v>0.1337367332467743</v>
       </c>
       <c r="F19">
-        <v>0.1537550348352011</v>
+        <v>0.1784617612182643</v>
       </c>
       <c r="G19">
-        <v>0.09714832805024348</v>
+        <v>0.1099752850648181</v>
       </c>
       <c r="H19">
-        <v>0.1239051978368598</v>
-      </c>
-      <c r="I19">
-        <v>0.1358580943153711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1404014563060877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1302853933157962</v>
+        <v>0.1501902291152908</v>
       </c>
       <c r="C20">
-        <v>0.1285726416614153</v>
+        <v>0.1488881600228016</v>
       </c>
       <c r="D20">
-        <v>0.117053573559767</v>
+        <v>0.1375221591584197</v>
       </c>
       <c r="E20">
-        <v>0.1206300998813314</v>
+        <v>0.1422827629155632</v>
       </c>
       <c r="F20">
-        <v>0.1360634161802896</v>
+        <v>0.1572821151757384</v>
       </c>
       <c r="G20">
-        <v>0.108070473781908</v>
+        <v>0.1237126721924506</v>
       </c>
       <c r="H20">
-        <v>0.1244307662525768</v>
-      </c>
-      <c r="I20">
-        <v>0.1348936353669157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1401219014197356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1392374123171218</v>
+        <v>0.1608965144774119</v>
       </c>
       <c r="C21">
-        <v>0.1282891415430923</v>
+        <v>0.1474596174038969</v>
       </c>
       <c r="D21">
-        <v>0.1046250025891018</v>
+        <v>0.1226118464338574</v>
       </c>
       <c r="E21">
-        <v>0.09763791760614131</v>
+        <v>0.1150214212988532</v>
       </c>
       <c r="F21">
-        <v>0.1496860963243654</v>
+        <v>0.1741030415734283</v>
       </c>
       <c r="G21">
-        <v>0.1190779776349814</v>
+        <v>0.1331773401463155</v>
       </c>
       <c r="H21">
-        <v>0.1275514529400325</v>
-      </c>
-      <c r="I21">
-        <v>0.1338949990451635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1467302186662368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1314797865097998</v>
+        <v>0.1499599636082069</v>
       </c>
       <c r="C22">
-        <v>0.1184385548910094</v>
+        <v>0.1340408337702924</v>
       </c>
       <c r="D22">
-        <v>0.1136199568747732</v>
+        <v>0.1317572533451689</v>
       </c>
       <c r="E22">
-        <v>0.1217105834452927</v>
+        <v>0.1414934680490713</v>
       </c>
       <c r="F22">
-        <v>0.154369617348714</v>
+        <v>0.1790159559532982</v>
       </c>
       <c r="G22">
-        <v>0.122682193978275</v>
+        <v>0.1323460652680273</v>
       </c>
       <c r="H22">
-        <v>0.1115531316525854</v>
-      </c>
-      <c r="I22">
-        <v>0.1261461752995506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1313864600059351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1313113407923668</v>
+        <v>0.1516656076999479</v>
       </c>
       <c r="C23">
-        <v>0.143082350149708</v>
+        <v>0.164578670618802</v>
       </c>
       <c r="D23">
-        <v>0.1361473631966509</v>
+        <v>0.158098647256102</v>
       </c>
       <c r="E23">
-        <v>0.1098421177498603</v>
+        <v>0.1305123543305872</v>
       </c>
       <c r="F23">
-        <v>0.1090106449139112</v>
+        <v>0.1300078644296617</v>
       </c>
       <c r="G23">
-        <v>0.08811070436654346</v>
+        <v>0.1032050943439203</v>
       </c>
       <c r="H23">
-        <v>0.1416799181890897</v>
-      </c>
-      <c r="I23">
-        <v>0.1408155606418697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1619317613209789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1086962084211156</v>
+        <v>0.1286498568161974</v>
       </c>
       <c r="C24">
-        <v>0.1482783499158436</v>
+        <v>0.1728883470875686</v>
       </c>
       <c r="D24">
-        <v>0.122781980788658</v>
+        <v>0.1450919378536809</v>
       </c>
       <c r="E24">
-        <v>0.1263575743922156</v>
+        <v>0.1477383370594217</v>
       </c>
       <c r="F24">
-        <v>0.09875161806947613</v>
+        <v>0.1120184806639535</v>
       </c>
       <c r="G24">
-        <v>0.1155377850385774</v>
+        <v>0.1418486268625845</v>
       </c>
       <c r="H24">
-        <v>0.1324809920417055</v>
-      </c>
-      <c r="I24">
-        <v>0.1471154913324083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1517644136565936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1328623171443606</v>
+        <v>0.1540084962351169</v>
       </c>
       <c r="C25">
-        <v>0.1322011810661801</v>
+        <v>0.1531095780751361</v>
       </c>
       <c r="D25">
-        <v>0.1114862480476676</v>
+        <v>0.1318343949004649</v>
       </c>
       <c r="E25">
-        <v>0.1321856973343379</v>
+        <v>0.1588205353707619</v>
       </c>
       <c r="F25">
-        <v>0.08875484868398166</v>
+        <v>0.1069453225361221</v>
       </c>
       <c r="G25">
-        <v>0.1181434867295259</v>
+        <v>0.1364729069351769</v>
       </c>
       <c r="H25">
-        <v>0.136236906483786</v>
-      </c>
-      <c r="I25">
-        <v>0.1481293145101601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1588087659472212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1181308054658735</v>
+        <v>0.1293935117845731</v>
       </c>
       <c r="C26">
-        <v>0.1339374735200103</v>
+        <v>0.1611747455686691</v>
       </c>
       <c r="D26">
-        <v>0.1569288799098892</v>
+        <v>0.1808286516455876</v>
       </c>
       <c r="E26">
-        <v>0.1486856611783584</v>
+        <v>0.1756677229582176</v>
       </c>
       <c r="F26">
-        <v>0.04020363532510521</v>
+        <v>0.04426771759501898</v>
       </c>
       <c r="G26">
-        <v>0.1065839708273012</v>
+        <v>0.1194460410635406</v>
       </c>
       <c r="H26">
-        <v>0.1763763883063207</v>
-      </c>
-      <c r="I26">
-        <v>0.1191531854671414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.1892216093843929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.118267418903321</v>
+        <v>0.1335095113079736</v>
       </c>
       <c r="C27">
-        <v>0.1072404122333023</v>
+        <v>0.1205321712466083</v>
       </c>
       <c r="D27">
-        <v>0.1586163161874273</v>
+        <v>0.1791316093314687</v>
       </c>
       <c r="E27">
-        <v>0.1740044098900045</v>
+        <v>0.1990862148215413</v>
       </c>
       <c r="F27">
-        <v>0.113569942230099</v>
+        <v>0.1246822348096713</v>
       </c>
       <c r="G27">
-        <v>0.1080833875659642</v>
+        <v>0.120966632404</v>
       </c>
       <c r="H27">
-        <v>0.1081040919834605</v>
-      </c>
-      <c r="I27">
-        <v>0.1121140210064214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.1220916260787366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1106476934942929</v>
+        <v>0.1303142903852471</v>
       </c>
       <c r="C28">
-        <v>0.1433391918652706</v>
+        <v>0.1638409198931391</v>
       </c>
       <c r="D28">
-        <v>0.1212868691358831</v>
+        <v>0.1414038302622443</v>
       </c>
       <c r="E28">
-        <v>0.1219142563632864</v>
+        <v>0.1436254876747137</v>
       </c>
       <c r="F28">
-        <v>0.09309634587477007</v>
+        <v>0.1089112384402304</v>
       </c>
       <c r="G28">
-        <v>0.1483776866218267</v>
+        <v>0.1595512479488871</v>
       </c>
       <c r="H28">
-        <v>0.1305387943791331</v>
-      </c>
-      <c r="I28">
-        <v>0.130799162265537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1523529853955383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1121606453953411</v>
+        <v>0.1320317644228151</v>
       </c>
       <c r="C29">
-        <v>0.1546437623541382</v>
+        <v>0.1785860187296987</v>
       </c>
       <c r="D29">
-        <v>0.1122299316259569</v>
+        <v>0.1343935130831196</v>
       </c>
       <c r="E29">
-        <v>0.1221530182064105</v>
+        <v>0.1465201864964568</v>
       </c>
       <c r="F29">
-        <v>0.07735749079662896</v>
+        <v>0.09802134672819371</v>
       </c>
       <c r="G29">
-        <v>0.1410049366664202</v>
+        <v>0.1579772448451529</v>
       </c>
       <c r="H29">
-        <v>0.1313632614654624</v>
-      </c>
-      <c r="I29">
-        <v>0.149086953489642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.152469925694563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1307317554530118</v>
+        <v>0.1521035308856216</v>
       </c>
       <c r="C30">
-        <v>0.1331502284740307</v>
+        <v>0.1534425993601693</v>
       </c>
       <c r="D30">
-        <v>0.1081303986711114</v>
+        <v>0.1256876464571207</v>
       </c>
       <c r="E30">
-        <v>0.111456357581191</v>
+        <v>0.1295949777003537</v>
       </c>
       <c r="F30">
-        <v>0.1307589843981963</v>
+        <v>0.1517239408718966</v>
       </c>
       <c r="G30">
-        <v>0.1109506495186171</v>
+        <v>0.1309370414407859</v>
       </c>
       <c r="H30">
-        <v>0.135944339364323</v>
-      </c>
-      <c r="I30">
-        <v>0.1388772865395187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1565102632840522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0959392449013579</v>
+        <v>0.112363000406329</v>
       </c>
       <c r="C31">
-        <v>0.1348555374726506</v>
+        <v>0.1558411488516676</v>
       </c>
       <c r="D31">
-        <v>0.1491032472732392</v>
+        <v>0.1840172511011097</v>
       </c>
       <c r="E31">
-        <v>0.1415500368761733</v>
+        <v>0.1717238953683009</v>
       </c>
       <c r="F31">
-        <v>0.04814336277556051</v>
+        <v>0.05479774271883787</v>
       </c>
       <c r="G31">
-        <v>0.1319404750319277</v>
+        <v>0.1484359797323275</v>
       </c>
       <c r="H31">
-        <v>0.1478668589295082</v>
-      </c>
-      <c r="I31">
-        <v>0.1506012367395828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.1728209818214275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1263506734791963</v>
+        <v>0.1418346112210001</v>
       </c>
       <c r="C32">
-        <v>0.1205615260495213</v>
+        <v>0.1411027231844771</v>
       </c>
       <c r="D32">
-        <v>0.1188385115145406</v>
+        <v>0.137190923655668</v>
       </c>
       <c r="E32">
-        <v>0.1326437206138096</v>
+        <v>0.1540413490861012</v>
       </c>
       <c r="F32">
-        <v>0.1190536456320578</v>
+        <v>0.1330199147950357</v>
       </c>
       <c r="G32">
-        <v>0.1417520655370945</v>
+        <v>0.1585583892393497</v>
       </c>
       <c r="H32">
-        <v>0.116125735325823</v>
-      </c>
-      <c r="I32">
-        <v>0.124674121847957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1342520888183681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1277387110903128</v>
+        <v>0.1500771379060679</v>
       </c>
       <c r="C33">
-        <v>0.1258362351779182</v>
+        <v>0.1410943621181227</v>
       </c>
       <c r="D33">
-        <v>0.1232648283099229</v>
+        <v>0.1446357265186189</v>
       </c>
       <c r="E33">
-        <v>0.1341133899994545</v>
+        <v>0.1583604029094853</v>
       </c>
       <c r="F33">
-        <v>0.1240395612678864</v>
+        <v>0.1440653985485708</v>
       </c>
       <c r="G33">
-        <v>0.112248246982571</v>
+        <v>0.1254475006774098</v>
       </c>
       <c r="H33">
-        <v>0.1209689610001649</v>
-      </c>
-      <c r="I33">
-        <v>0.1317900661717693</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1363194713217248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1246173918670668</v>
+        <v>0.1433576355316453</v>
       </c>
       <c r="C34">
-        <v>0.1277258853666522</v>
+        <v>0.1461195210374911</v>
       </c>
       <c r="D34">
-        <v>0.1236424236757106</v>
+        <v>0.1428884693965679</v>
       </c>
       <c r="E34">
-        <v>0.1266765361587227</v>
+        <v>0.1492190661169598</v>
       </c>
       <c r="F34">
-        <v>0.1248247742267534</v>
+        <v>0.1437095782546242</v>
       </c>
       <c r="G34">
-        <v>0.1127129259450798</v>
+        <v>0.126914842427162</v>
       </c>
       <c r="H34">
-        <v>0.1313755212116424</v>
-      </c>
-      <c r="I34">
-        <v>0.1284245415483723</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1477908872355496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1443912664270351</v>
+        <v>0.1653593127870706</v>
       </c>
       <c r="C35">
-        <v>0.1175050524397295</v>
+        <v>0.131734668647206</v>
       </c>
       <c r="D35">
-        <v>0.1405584994906746</v>
+        <v>0.1661658339036796</v>
       </c>
       <c r="E35">
-        <v>0.1486088881225507</v>
+        <v>0.1761260066729722</v>
       </c>
       <c r="F35">
-        <v>0.1370716789673764</v>
+        <v>0.154002794566495</v>
       </c>
       <c r="G35">
-        <v>0.08397149230424494</v>
+        <v>0.09391758295163584</v>
       </c>
       <c r="H35">
-        <v>0.1033957022932718</v>
-      </c>
-      <c r="I35">
-        <v>0.1244974199551171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.1126938004709408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1412860561499255</v>
+        <v>0.161625589975053</v>
       </c>
       <c r="C36">
-        <v>0.1051281623606281</v>
+        <v>0.1155014167921374</v>
       </c>
       <c r="D36">
-        <v>0.1429461002500524</v>
+        <v>0.1708213088740021</v>
       </c>
       <c r="E36">
-        <v>0.152100406116246</v>
+        <v>0.182333853544955</v>
       </c>
       <c r="F36">
-        <v>0.1286885410224184</v>
+        <v>0.1425432032164708</v>
       </c>
       <c r="G36">
-        <v>0.0908355636364261</v>
+        <v>0.09967824797077852</v>
       </c>
       <c r="H36">
-        <v>0.1148225666090607</v>
-      </c>
-      <c r="I36">
-        <v>0.1241926038552429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1274963796266032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1331939082049701</v>
+        <v>0.1554865993669606</v>
       </c>
       <c r="C37">
-        <v>0.1210040689761387</v>
+        <v>0.1383626708089403</v>
       </c>
       <c r="D37">
-        <v>0.1293357161884122</v>
+        <v>0.1524706280112915</v>
       </c>
       <c r="E37">
-        <v>0.1280685127139187</v>
+        <v>0.1501352263217763</v>
       </c>
       <c r="F37">
-        <v>0.1326868591199135</v>
+        <v>0.1523107249181111</v>
       </c>
       <c r="G37">
-        <v>0.1006744394635142</v>
+        <v>0.1180856533611584</v>
       </c>
       <c r="H37">
-        <v>0.1143025834934191</v>
-      </c>
-      <c r="I37">
-        <v>0.1407339118397138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1331484972117616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1275732627829884</v>
+        <v>0.149157634677445</v>
       </c>
       <c r="C38">
-        <v>0.1341101454121623</v>
+        <v>0.1573167866423625</v>
       </c>
       <c r="D38">
-        <v>0.1170383760263572</v>
+        <v>0.1343746963759386</v>
       </c>
       <c r="E38">
-        <v>0.1214411522708274</v>
+        <v>0.1385869122795831</v>
       </c>
       <c r="F38">
-        <v>0.09732107345050733</v>
+        <v>0.1199070005081279</v>
       </c>
       <c r="G38">
-        <v>0.1020658057645284</v>
+        <v>0.1200134175002611</v>
       </c>
       <c r="H38">
-        <v>0.1567038267250548</v>
-      </c>
-      <c r="I38">
-        <v>0.1437463575675741</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1806435520162817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1278412608961427</v>
+        <v>0.1472888999643739</v>
       </c>
       <c r="C39">
-        <v>0.1292812853809508</v>
+        <v>0.1493633713048837</v>
       </c>
       <c r="D39">
-        <v>0.1176135011861282</v>
+        <v>0.1344818058759045</v>
       </c>
       <c r="E39">
-        <v>0.1229651709107522</v>
+        <v>0.1406759570939219</v>
       </c>
       <c r="F39">
-        <v>0.1025511091639373</v>
+        <v>0.1263954515806836</v>
       </c>
       <c r="G39">
-        <v>0.1164450478445276</v>
+        <v>0.1388325589265292</v>
       </c>
       <c r="H39">
-        <v>0.1422935311028562</v>
-      </c>
-      <c r="I39">
-        <v>0.1410090935147051</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1629619552537031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1077451323160503</v>
+        <v>0.1248082292653803</v>
       </c>
       <c r="C40">
-        <v>0.130815718314545</v>
+        <v>0.1472124994429037</v>
       </c>
       <c r="D40">
-        <v>0.1272067223097031</v>
+        <v>0.1498943981426266</v>
       </c>
       <c r="E40">
-        <v>0.1469180981173825</v>
+        <v>0.1780498705145121</v>
       </c>
       <c r="F40">
-        <v>0.08500999362997344</v>
+        <v>0.0957666628529124</v>
       </c>
       <c r="G40">
-        <v>0.1009151815407647</v>
+        <v>0.1151184887103648</v>
       </c>
       <c r="H40">
-        <v>0.1640071610100335</v>
-      </c>
-      <c r="I40">
-        <v>0.1373819927615473</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.1891498510713002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1070548049520225</v>
+        <v>0.1235883281504577</v>
       </c>
       <c r="C41">
-        <v>0.1330879037025796</v>
+        <v>0.1506125917025059</v>
       </c>
       <c r="D41">
-        <v>0.133202536086111</v>
+        <v>0.1566801481666379</v>
       </c>
       <c r="E41">
-        <v>0.1353223491206379</v>
+        <v>0.1543968926281237</v>
       </c>
       <c r="F41">
-        <v>0.09099072691489754</v>
+        <v>0.1055500687563071</v>
       </c>
       <c r="G41">
-        <v>0.1188885854344502</v>
+        <v>0.1446396411649736</v>
       </c>
       <c r="H41">
-        <v>0.14307912944134</v>
-      </c>
-      <c r="I41">
-        <v>0.1383739643479613</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1645323294309941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1189050775702634</v>
+        <v>0.1376096606992234</v>
       </c>
       <c r="C42">
-        <v>0.134713762430316</v>
+        <v>0.1567966004847362</v>
       </c>
       <c r="D42">
-        <v>0.1142032627013844</v>
+        <v>0.1336101514844751</v>
       </c>
       <c r="E42">
-        <v>0.1373994885400599</v>
+        <v>0.1632406897873308</v>
       </c>
       <c r="F42">
-        <v>0.09156229237250234</v>
+        <v>0.1095235109152306</v>
       </c>
       <c r="G42">
-        <v>0.09492587658057892</v>
+        <v>0.1105217708075511</v>
       </c>
       <c r="H42">
-        <v>0.1565285241983464</v>
-      </c>
-      <c r="I42">
-        <v>0.1517617156065486</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.188697615821453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1259056720364169</v>
+        <v>0.148697105570043</v>
       </c>
       <c r="C43">
-        <v>0.1208191344647035</v>
+        <v>0.1377799781509002</v>
       </c>
       <c r="D43">
-        <v>0.129077138721243</v>
+        <v>0.1501138514213318</v>
       </c>
       <c r="E43">
-        <v>0.1344619353957855</v>
+        <v>0.1552186727363044</v>
       </c>
       <c r="F43">
-        <v>0.1026778322234381</v>
+        <v>0.1212102201866078</v>
       </c>
       <c r="G43">
-        <v>0.1407323814271015</v>
+        <v>0.1646760120199283</v>
       </c>
       <c r="H43">
-        <v>0.1041023109426445</v>
-      </c>
-      <c r="I43">
-        <v>0.1422235947886671</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.1223041599148845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1321081416184581</v>
+        <v>0.1539358968163667</v>
       </c>
       <c r="C44">
-        <v>0.1265547432880851</v>
+        <v>0.1450820117627859</v>
       </c>
       <c r="D44">
-        <v>0.1131926781682835</v>
+        <v>0.1308847087977535</v>
       </c>
       <c r="E44">
-        <v>0.1144963503052463</v>
+        <v>0.1347985748487251</v>
       </c>
       <c r="F44">
-        <v>0.140992198410896</v>
+        <v>0.1616331396306235</v>
       </c>
       <c r="G44">
-        <v>0.1175922127698439</v>
+        <v>0.1342827705010347</v>
       </c>
       <c r="H44">
-        <v>0.1220506496942612</v>
-      </c>
-      <c r="I44">
-        <v>0.1330130257449259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1393828976427106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.126514045427972</v>
+        <v>0.1432181093253022</v>
       </c>
       <c r="C45">
-        <v>0.1225322167472189</v>
+        <v>0.1385644141514418</v>
       </c>
       <c r="D45">
-        <v>0.12253077083696</v>
+        <v>0.1397019232665132</v>
       </c>
       <c r="E45">
-        <v>0.1264965384047603</v>
+        <v>0.1452110706662883</v>
       </c>
       <c r="F45">
-        <v>0.1295643101870712</v>
+        <v>0.15335389476864</v>
       </c>
       <c r="G45">
-        <v>0.1303525728788248</v>
+        <v>0.1476577511029801</v>
       </c>
       <c r="H45">
-        <v>0.1121708055457003</v>
-      </c>
-      <c r="I45">
-        <v>0.1298387399714927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1322928367188345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1332344096961021</v>
+        <v>0.1572023044882095</v>
       </c>
       <c r="C46">
-        <v>0.1244613818078343</v>
+        <v>0.1436022814065137</v>
       </c>
       <c r="D46">
-        <v>0.1132203223170581</v>
+        <v>0.1334820520205709</v>
       </c>
       <c r="E46">
-        <v>0.1217492779558862</v>
+        <v>0.1422771106495427</v>
       </c>
       <c r="F46">
-        <v>0.1489594347575295</v>
+        <v>0.1729250012279886</v>
       </c>
       <c r="G46">
-        <v>0.09923517799491698</v>
+        <v>0.1143638143863671</v>
       </c>
       <c r="H46">
-        <v>0.1206636027477119</v>
-      </c>
-      <c r="I46">
-        <v>0.1384763927229612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1361474358208074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.124701531129022</v>
+        <v>0.144414229897232</v>
       </c>
       <c r="C47">
-        <v>0.1256767366254664</v>
+        <v>0.1458080686375935</v>
       </c>
       <c r="D47">
-        <v>0.1170411811381781</v>
+        <v>0.134330213006506</v>
       </c>
       <c r="E47">
-        <v>0.119898745006085</v>
+        <v>0.1401494526777176</v>
       </c>
       <c r="F47">
-        <v>0.146104467112957</v>
+        <v>0.1688237508314151</v>
       </c>
       <c r="G47">
-        <v>0.108298492858518</v>
+        <v>0.1218350928559214</v>
       </c>
       <c r="H47">
-        <v>0.1290201102536247</v>
-      </c>
-      <c r="I47">
-        <v>0.1292587358761488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1446391920936142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.126934935579985</v>
+        <v>0.1463598836434093</v>
       </c>
       <c r="C48">
-        <v>0.1207249588407642</v>
+        <v>0.1402387053202931</v>
       </c>
       <c r="D48">
-        <v>0.113923873897518</v>
+        <v>0.1308327948583533</v>
       </c>
       <c r="E48">
-        <v>0.1208989346805858</v>
+        <v>0.136604553882084</v>
       </c>
       <c r="F48">
-        <v>0.1369205369406315</v>
+        <v>0.1561397777778743</v>
       </c>
       <c r="G48">
-        <v>0.1180866988099954</v>
+        <v>0.134356085243172</v>
       </c>
       <c r="H48">
-        <v>0.1376149858332793</v>
-      </c>
-      <c r="I48">
-        <v>0.1248950754172409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.155468199274814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1194764182226689</v>
+        <v>0.1333108245531215</v>
       </c>
       <c r="C49">
-        <v>0.08179612599057957</v>
+        <v>0.09155197078303536</v>
       </c>
       <c r="D49">
-        <v>0.2134700463883723</v>
+        <v>0.2446479167832729</v>
       </c>
       <c r="E49">
-        <v>0.1668119756580911</v>
+        <v>0.1850848356893566</v>
       </c>
       <c r="F49">
-        <v>0.1436756631946036</v>
+        <v>0.1614871830461141</v>
       </c>
       <c r="G49">
-        <v>0.07669222988199423</v>
+        <v>0.08748907244006424</v>
       </c>
       <c r="H49">
-        <v>0.08753296050757539</v>
-      </c>
-      <c r="I49">
-        <v>0.1105445801561149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.09642819670503534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.09380362022032333</v>
+        <v>0.1137125302071452</v>
       </c>
       <c r="C50">
-        <v>0.1526069711237895</v>
+        <v>0.182908450876372</v>
       </c>
       <c r="D50">
-        <v>0.1283251275906421</v>
+        <v>0.1570976228217067</v>
       </c>
       <c r="E50">
-        <v>0.1385331738697658</v>
+        <v>0.1706600642648888</v>
       </c>
       <c r="F50">
-        <v>0.04251518411974263</v>
+        <v>0.04926984754690696</v>
       </c>
       <c r="G50">
-        <v>0.1165960413125205</v>
+        <v>0.1329313376883807</v>
       </c>
       <c r="H50">
-        <v>0.1677253910789627</v>
-      </c>
-      <c r="I50">
-        <v>0.1598944906842535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1934201465945998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1071185363406562</v>
+        <v>0.131617440773732</v>
       </c>
       <c r="C51">
-        <v>0.1524536121625613</v>
+        <v>0.1709337660130837</v>
       </c>
       <c r="D51">
-        <v>0.1386923942469242</v>
+        <v>0.1656942008529702</v>
       </c>
       <c r="E51">
-        <v>0.1428637850818419</v>
+        <v>0.1862844459459506</v>
       </c>
       <c r="F51">
-        <v>0.03864477251346237</v>
+        <v>0.04470175359234523</v>
       </c>
       <c r="G51">
-        <v>0.08790548427130873</v>
+        <v>0.1033030916342266</v>
       </c>
       <c r="H51">
-        <v>0.1674961123827767</v>
-      </c>
-      <c r="I51">
-        <v>0.1648253030004685</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1974653011876917</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.09191233824579087</v>
+        <v>0.1083902452847322</v>
       </c>
       <c r="C52">
-        <v>0.1016893764196157</v>
+        <v>0.1193479381200503</v>
       </c>
       <c r="D52">
-        <v>0.1574363353747706</v>
+        <v>0.1836505760917387</v>
       </c>
       <c r="E52">
-        <v>0.148556184296131</v>
+        <v>0.1744505793939276</v>
       </c>
       <c r="F52">
-        <v>0.09231134232311891</v>
+        <v>0.110744098291757</v>
       </c>
       <c r="G52">
-        <v>0.09108023103370542</v>
+        <v>0.108350781024144</v>
       </c>
       <c r="H52">
-        <v>0.1618969098579955</v>
-      </c>
-      <c r="I52">
-        <v>0.155117282448872</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.1950657817936502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.102931272472345</v>
+        <v>0.1230763556008918</v>
       </c>
       <c r="C53">
-        <v>0.1406230609333675</v>
+        <v>0.1632816050896422</v>
       </c>
       <c r="D53">
-        <v>0.1428951432208122</v>
+        <v>0.1713044400745371</v>
       </c>
       <c r="E53">
-        <v>0.1523990354693844</v>
+        <v>0.1699432748508862</v>
       </c>
       <c r="F53">
-        <v>0.0446327223938711</v>
+        <v>0.05083521695137153</v>
       </c>
       <c r="G53">
-        <v>0.1115099020082508</v>
+        <v>0.13836906663352</v>
       </c>
       <c r="H53">
-        <v>0.1597110491869539</v>
-      </c>
-      <c r="I53">
-        <v>0.145297814315015</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1831900407991513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1109552682386219</v>
+        <v>0.1302996009587954</v>
       </c>
       <c r="C54">
-        <v>0.1312552079879003</v>
+        <v>0.1500198056433154</v>
       </c>
       <c r="D54">
-        <v>0.1181523737443835</v>
+        <v>0.1350677553275544</v>
       </c>
       <c r="E54">
-        <v>0.1153701887058299</v>
+        <v>0.1308730224254636</v>
       </c>
       <c r="F54">
-        <v>0.1237766104718519</v>
+        <v>0.1457216981874706</v>
       </c>
       <c r="G54">
-        <v>0.1091167585905446</v>
+        <v>0.1329300529459324</v>
       </c>
       <c r="H54">
-        <v>0.1509857356276326</v>
-      </c>
-      <c r="I54">
-        <v>0.1403878566332351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1750880645114682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1061631315975742</v>
+        <v>0.1243691950311911</v>
       </c>
       <c r="C55">
-        <v>0.1225058374289312</v>
+        <v>0.1395478553031808</v>
       </c>
       <c r="D55">
-        <v>0.1288903256676703</v>
+        <v>0.1474341264063495</v>
       </c>
       <c r="E55">
-        <v>0.1305515842843854</v>
+        <v>0.1500918542465082</v>
       </c>
       <c r="F55">
-        <v>0.1199689296374025</v>
+        <v>0.1413314000954965</v>
       </c>
       <c r="G55">
-        <v>0.1087088640406091</v>
+        <v>0.1266269593311767</v>
       </c>
       <c r="H55">
-        <v>0.1477464750471967</v>
-      </c>
-      <c r="I55">
-        <v>0.1354648522962307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1705986095860971</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1146881435277565</v>
+        <v>0.1336992072529659</v>
       </c>
       <c r="C56">
-        <v>0.1459562504021995</v>
+        <v>0.1661064335545051</v>
       </c>
       <c r="D56">
-        <v>0.1240110138621591</v>
+        <v>0.1444880774908007</v>
       </c>
       <c r="E56">
-        <v>0.1249176071562301</v>
+        <v>0.1468210842891595</v>
       </c>
       <c r="F56">
-        <v>0.07407458270589494</v>
+        <v>0.0839192053939237</v>
       </c>
       <c r="G56">
-        <v>0.1243192941434978</v>
+        <v>0.1424550451272169</v>
       </c>
       <c r="H56">
-        <v>0.1576164321689717</v>
-      </c>
-      <c r="I56">
-        <v>0.1344166760332904</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1825109468914282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1254710813710713</v>
+        <v>0.1430705722342492</v>
       </c>
       <c r="C57">
-        <v>0.1287034248049307</v>
+        <v>0.1499130886057096</v>
       </c>
       <c r="D57">
-        <v>0.1205062798321095</v>
+        <v>0.1405140877559883</v>
       </c>
       <c r="E57">
-        <v>0.1338437492567138</v>
+        <v>0.1576434197949711</v>
       </c>
       <c r="F57">
-        <v>0.1106104369308415</v>
+        <v>0.1292980903777659</v>
       </c>
       <c r="G57">
-        <v>0.1097030891756077</v>
+        <v>0.1297913488285572</v>
       </c>
       <c r="H57">
-        <v>0.13068564778706</v>
-      </c>
-      <c r="I57">
-        <v>0.1404762908416655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1497693924027589</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1314157288532653</v>
+        <v>0.1496888853955886</v>
       </c>
       <c r="C58">
-        <v>0.1297645617891839</v>
+        <v>0.1527012218393125</v>
       </c>
       <c r="D58">
-        <v>0.1189442943398136</v>
+        <v>0.1396807302961363</v>
       </c>
       <c r="E58">
-        <v>0.1311911149889807</v>
+        <v>0.1543664497151396</v>
       </c>
       <c r="F58">
-        <v>0.1009159592661282</v>
+        <v>0.1188109255633148</v>
       </c>
       <c r="G58">
-        <v>0.1118232356775579</v>
+        <v>0.1321829693810841</v>
       </c>
       <c r="H58">
-        <v>0.1318258904835956</v>
-      </c>
-      <c r="I58">
-        <v>0.1441192146014748</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1525688178094242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1136911009482313</v>
+        <v>0.1325542429758452</v>
       </c>
       <c r="C59">
-        <v>0.1471272384367356</v>
+        <v>0.1676166751596315</v>
       </c>
       <c r="D59">
-        <v>0.1090573894912413</v>
+        <v>0.1258473828618689</v>
       </c>
       <c r="E59">
-        <v>0.1147971866395195</v>
+        <v>0.1325123458398308</v>
       </c>
       <c r="F59">
-        <v>0.07851859018344881</v>
+        <v>0.08762723008167864</v>
       </c>
       <c r="G59">
-        <v>0.1564082843385273</v>
+        <v>0.1834664441149173</v>
       </c>
       <c r="H59">
-        <v>0.1456062184061727</v>
-      </c>
-      <c r="I59">
-        <v>0.1347939915561236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1703756789662274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.121380838956812</v>
+        <v>0.1415285337093782</v>
       </c>
       <c r="C60">
-        <v>0.1467093701863969</v>
+        <v>0.1715535231161306</v>
       </c>
       <c r="D60">
-        <v>0.1081078779430002</v>
+        <v>0.1254457223152341</v>
       </c>
       <c r="E60">
-        <v>0.1157214747428246</v>
+        <v>0.1345411537384712</v>
       </c>
       <c r="F60">
-        <v>0.0810639665411917</v>
+        <v>0.09089180532934819</v>
       </c>
       <c r="G60">
-        <v>0.1432393794609448</v>
+        <v>0.1737999028619782</v>
       </c>
       <c r="H60">
-        <v>0.1381212413318681</v>
-      </c>
-      <c r="I60">
-        <v>0.1456558508369619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1622393589294595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1042248781581627</v>
+        <v>0.1142789667482558</v>
       </c>
       <c r="C61">
-        <v>0.09620815679669939</v>
+        <v>0.107232654741402</v>
       </c>
       <c r="D61">
-        <v>0.1809980796753027</v>
+        <v>0.1978897878665201</v>
       </c>
       <c r="E61">
-        <v>0.1210193854431209</v>
+        <v>0.1298526019621859</v>
       </c>
       <c r="F61">
-        <v>0.1855506651534102</v>
+        <v>0.221250528256805</v>
       </c>
       <c r="G61">
-        <v>0.1071173575343659</v>
+        <v>0.1197638310494106</v>
       </c>
       <c r="H61">
-        <v>0.09928749418748141</v>
-      </c>
-      <c r="I61">
-        <v>0.1055939830514568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1097316293754205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1359937210606419</v>
+        <v>0.1562443723909179</v>
       </c>
       <c r="C62">
-        <v>0.1208197576428571</v>
+        <v>0.142057582182031</v>
       </c>
       <c r="D62">
-        <v>0.115594755455701</v>
+        <v>0.1330807789789228</v>
       </c>
       <c r="E62">
-        <v>0.1109821006118163</v>
+        <v>0.1299699879711082</v>
       </c>
       <c r="F62">
-        <v>0.149690843905908</v>
+        <v>0.1685110148632556</v>
       </c>
       <c r="G62">
-        <v>0.112409301989403</v>
+        <v>0.1325176276249095</v>
       </c>
       <c r="H62">
-        <v>0.1199280999636484</v>
-      </c>
-      <c r="I62">
-        <v>0.1345814193700244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.137618635988855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1220413412328973</v>
+        <v>0.1424326701932088</v>
       </c>
       <c r="C63">
-        <v>0.127245304250639</v>
+        <v>0.1466603916467273</v>
       </c>
       <c r="D63">
-        <v>0.1123671674204358</v>
+        <v>0.1303659017223876</v>
       </c>
       <c r="E63">
-        <v>0.1205406951134278</v>
+        <v>0.1402361610695012</v>
       </c>
       <c r="F63">
-        <v>0.1362435231364034</v>
+        <v>0.149753190369941</v>
       </c>
       <c r="G63">
-        <v>0.1219552876605582</v>
+        <v>0.1460016394891779</v>
       </c>
       <c r="H63">
-        <v>0.1249589177752764</v>
-      </c>
-      <c r="I63">
-        <v>0.1346477634103623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1445500455090563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1302273349181972</v>
+        <v>0.1508322359265531</v>
       </c>
       <c r="C64">
-        <v>0.12934059299734</v>
+        <v>0.1486364223026137</v>
       </c>
       <c r="D64">
-        <v>0.1099501411397531</v>
+        <v>0.1275363949991193</v>
       </c>
       <c r="E64">
-        <v>0.1179584360158001</v>
+        <v>0.1361712540638298</v>
       </c>
       <c r="F64">
-        <v>0.1513573910522621</v>
+        <v>0.1696051656577155</v>
       </c>
       <c r="G64">
-        <v>0.114455156811621</v>
+        <v>0.1302582355748028</v>
       </c>
       <c r="H64">
-        <v>0.1191029293145212</v>
-      </c>
-      <c r="I64">
-        <v>0.1276080177505054</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1369602914753658</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1231660371081848</v>
+        <v>0.146665877088339</v>
       </c>
       <c r="C65">
-        <v>0.1097006644550708</v>
+        <v>0.1301278531932997</v>
       </c>
       <c r="D65">
-        <v>0.1441969814706685</v>
+        <v>0.1684187253333722</v>
       </c>
       <c r="E65">
-        <v>0.1328307660983764</v>
+        <v>0.1536253236292826</v>
       </c>
       <c r="F65">
-        <v>0.1288626801075727</v>
+        <v>0.1561841671534138</v>
       </c>
       <c r="G65">
-        <v>0.07592313418032789</v>
+        <v>0.0878441761132016</v>
       </c>
       <c r="H65">
-        <v>0.1352474696558865</v>
-      </c>
-      <c r="I65">
-        <v>0.1500722669239125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1571338774890909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1420766662795206</v>
+        <v>0.1667500412607339</v>
       </c>
       <c r="C66">
-        <v>0.1150712405701824</v>
+        <v>0.1342322991344979</v>
       </c>
       <c r="D66">
-        <v>0.1246750273151079</v>
+        <v>0.1411145709450259</v>
       </c>
       <c r="E66">
-        <v>0.1558992876979071</v>
+        <v>0.1779342351645746</v>
       </c>
       <c r="F66">
-        <v>0.1368048144880362</v>
+        <v>0.15773481215206</v>
       </c>
       <c r="G66">
-        <v>0.0738765965303546</v>
+        <v>0.08535988841445542</v>
       </c>
       <c r="H66">
-        <v>0.1158980292674256</v>
-      </c>
-      <c r="I66">
-        <v>0.1356983378514655</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1368741529286523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1337539620285258</v>
+        <v>0.1552800045915498</v>
       </c>
       <c r="C67">
-        <v>0.111319722410588</v>
+        <v>0.1281152508435862</v>
       </c>
       <c r="D67">
-        <v>0.1112771253093131</v>
+        <v>0.1301667492864825</v>
       </c>
       <c r="E67">
-        <v>0.1177030032277115</v>
+        <v>0.1355028617971626</v>
       </c>
       <c r="F67">
-        <v>0.1362375680171909</v>
+        <v>0.1593234320119208</v>
       </c>
       <c r="G67">
-        <v>0.1323457583710223</v>
+        <v>0.1486322985758801</v>
       </c>
       <c r="H67">
-        <v>0.1255144585556058</v>
-      </c>
-      <c r="I67">
-        <v>0.1318484020800424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.142979402893418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1228735288578776</v>
+        <v>0.1408323249716215</v>
       </c>
       <c r="C68">
-        <v>0.1221672097407686</v>
+        <v>0.1379962760598448</v>
       </c>
       <c r="D68">
-        <v>0.109051133962554</v>
+        <v>0.1238928905617565</v>
       </c>
       <c r="E68">
-        <v>0.1161158590586045</v>
+        <v>0.1317748946887601</v>
       </c>
       <c r="F68">
-        <v>0.1313201041516199</v>
+        <v>0.1482154205934718</v>
       </c>
       <c r="G68">
-        <v>0.1567995598962262</v>
+        <v>0.1798366159648024</v>
       </c>
       <c r="H68">
-        <v>0.11939376134671</v>
-      </c>
-      <c r="I68">
-        <v>0.1222788429856391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1374515771597429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1231428378296345</v>
+        <v>0.1396347293393027</v>
       </c>
       <c r="C69">
-        <v>0.1222968220683783</v>
+        <v>0.1389995347641698</v>
       </c>
       <c r="D69">
-        <v>0.1119633330708318</v>
+        <v>0.1264667921490483</v>
       </c>
       <c r="E69">
-        <v>0.1174403263425167</v>
+        <v>0.1327888688875658</v>
       </c>
       <c r="F69">
-        <v>0.1275126208454445</v>
+        <v>0.142220896300938</v>
       </c>
       <c r="G69">
-        <v>0.1461364372702853</v>
+        <v>0.1679276012754825</v>
       </c>
       <c r="H69">
-        <v>0.1304164930183473</v>
-      </c>
-      <c r="I69">
-        <v>0.1210911295545617</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1519615772834929</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1302950545427954</v>
+        <v>0.1462261885074391</v>
       </c>
       <c r="C70">
-        <v>0.1295009919665527</v>
+        <v>0.1471141796028933</v>
       </c>
       <c r="D70">
-        <v>0.1186439758555115</v>
+        <v>0.1380402327273489</v>
       </c>
       <c r="E70">
-        <v>0.1324557384877589</v>
+        <v>0.1553359632347891</v>
       </c>
       <c r="F70">
-        <v>0.1313394210372871</v>
+        <v>0.1504468781396338</v>
       </c>
       <c r="G70">
-        <v>0.1059835880974404</v>
+        <v>0.1206607022909712</v>
       </c>
       <c r="H70">
-        <v>0.1238593460772393</v>
-      </c>
-      <c r="I70">
-        <v>0.1279218839354148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1421758554969247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1342015360838305</v>
+        <v>0.1518917504243631</v>
       </c>
       <c r="C71">
-        <v>0.1256923249527613</v>
+        <v>0.1476458673333582</v>
       </c>
       <c r="D71">
-        <v>0.1163738246254307</v>
+        <v>0.1337781120853975</v>
       </c>
       <c r="E71">
-        <v>0.1215483431719568</v>
+        <v>0.1389785977014115</v>
       </c>
       <c r="F71">
-        <v>0.1316812065146006</v>
+        <v>0.1532388581937286</v>
       </c>
       <c r="G71">
-        <v>0.1289701966033892</v>
+        <v>0.1395542041298561</v>
       </c>
       <c r="H71">
-        <v>0.1194465403169331</v>
-      </c>
-      <c r="I71">
-        <v>0.122086027731098</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1349126101318849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1096823202921509</v>
+        <v>0.123836566544678</v>
       </c>
       <c r="C72">
-        <v>0.120570255992267</v>
+        <v>0.1372062807666961</v>
       </c>
       <c r="D72">
-        <v>0.120145334758345</v>
+        <v>0.1368844069996411</v>
       </c>
       <c r="E72">
-        <v>0.1277859946625629</v>
+        <v>0.148031213277095</v>
       </c>
       <c r="F72">
-        <v>0.1143288075839046</v>
+        <v>0.1264681715477642</v>
       </c>
       <c r="G72">
-        <v>0.1512864889189015</v>
+        <v>0.1759601359169259</v>
       </c>
       <c r="H72">
-        <v>0.1284423760986289</v>
-      </c>
-      <c r="I72">
-        <v>0.1277584216932391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1516132249471999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1374267763866757</v>
+        <v>0.1537752315198116</v>
       </c>
       <c r="C73">
-        <v>0.1182549560265354</v>
+        <v>0.1382764336453512</v>
       </c>
       <c r="D73">
-        <v>0.1135401263934918</v>
+        <v>0.1320022643038126</v>
       </c>
       <c r="E73">
-        <v>0.1208117007067398</v>
+        <v>0.1397688230971078</v>
       </c>
       <c r="F73">
-        <v>0.1515988250190071</v>
+        <v>0.1778163143441402</v>
       </c>
       <c r="G73">
-        <v>0.1075073083799996</v>
+        <v>0.124044176124995</v>
       </c>
       <c r="H73">
-        <v>0.1189382288282296</v>
-      </c>
-      <c r="I73">
-        <v>0.131922078259321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.1343167569647815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1002692481175767</v>
+        <v>0.1260389790410742</v>
       </c>
       <c r="C74">
-        <v>0.1529170282818929</v>
+        <v>0.1740131810917466</v>
       </c>
       <c r="D74">
-        <v>0.1182937142507354</v>
+        <v>0.1462180562123276</v>
       </c>
       <c r="E74">
-        <v>0.1242034247138118</v>
+        <v>0.1516529532685096</v>
       </c>
       <c r="F74">
-        <v>0.04404891287737747</v>
+        <v>0.0520637805415551</v>
       </c>
       <c r="G74">
-        <v>0.1314423248129757</v>
+        <v>0.1443827046627068</v>
       </c>
       <c r="H74">
-        <v>0.1761476024727358</v>
-      </c>
-      <c r="I74">
-        <v>0.1526777444728941</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.2056303451820802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.08072707613097294</v>
+        <v>0.08718524831113023</v>
       </c>
       <c r="C75">
-        <v>0.0792882033920263</v>
+        <v>0.08683704574542851</v>
       </c>
       <c r="D75">
-        <v>0.1780807511760329</v>
+        <v>0.1918685688888243</v>
       </c>
       <c r="E75">
-        <v>0.1961483336234418</v>
+        <v>0.2156093512150257</v>
       </c>
       <c r="F75">
-        <v>0.194723889541972</v>
+        <v>0.2124063714416919</v>
       </c>
       <c r="G75">
-        <v>0.1024345668340278</v>
+        <v>0.1158842705648129</v>
       </c>
       <c r="H75">
-        <v>0.08287563597434489</v>
-      </c>
-      <c r="I75">
-        <v>0.08572154332718149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.09020914383308642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1014479746423431</v>
+        <v>0.1192095901215366</v>
       </c>
       <c r="C76">
-        <v>0.1409414347006713</v>
+        <v>0.1621793797260555</v>
       </c>
       <c r="D76">
-        <v>0.117645638443154</v>
+        <v>0.1392543755580611</v>
       </c>
       <c r="E76">
-        <v>0.1449307816410051</v>
+        <v>0.172774620074512</v>
       </c>
       <c r="F76">
-        <v>0.03825011580771176</v>
+        <v>0.04447529907319867</v>
       </c>
       <c r="G76">
-        <v>0.1618375615652359</v>
+        <v>0.18680101222797</v>
       </c>
       <c r="H76">
-        <v>0.1487221146601468</v>
-      </c>
-      <c r="I76">
-        <v>0.1462243785397322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1753057232186661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1165535224670887</v>
+        <v>0.1314695412175496</v>
       </c>
       <c r="C77">
-        <v>0.1279277109034149</v>
+        <v>0.1422283471553911</v>
       </c>
       <c r="D77">
-        <v>0.1363724446617819</v>
+        <v>0.1558012576627368</v>
       </c>
       <c r="E77">
-        <v>0.1609686103400102</v>
+        <v>0.184956186256172</v>
       </c>
       <c r="F77">
-        <v>0.07358089616420115</v>
+        <v>0.08326475830251857</v>
       </c>
       <c r="G77">
-        <v>0.0970122715002187</v>
+        <v>0.1116094226569681</v>
       </c>
       <c r="H77">
-        <v>0.1672829767310924</v>
-      </c>
-      <c r="I77">
-        <v>0.1203015672321922</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1906704867486639</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1023391159740668</v>
+        <v>0.1164726644038422</v>
       </c>
       <c r="C78">
-        <v>0.1482585611722037</v>
+        <v>0.1800400264030415</v>
       </c>
       <c r="D78">
-        <v>0.1249563411295339</v>
+        <v>0.141479184413654</v>
       </c>
       <c r="E78">
-        <v>0.1231476499879437</v>
+        <v>0.1449108603062647</v>
       </c>
       <c r="F78">
-        <v>0.1554184758001974</v>
+        <v>0.18212662960837</v>
       </c>
       <c r="G78">
-        <v>0.1011303640096357</v>
+        <v>0.11391105158006</v>
       </c>
       <c r="H78">
-        <v>0.1084751844948609</v>
-      </c>
-      <c r="I78">
-        <v>0.136274307431558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.1210595832847677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1093851733300813</v>
+        <v>0.1312441932654214</v>
       </c>
       <c r="C79">
-        <v>0.1210024400987546</v>
+        <v>0.1462425137283032</v>
       </c>
       <c r="D79">
-        <v>0.1359027448158233</v>
+        <v>0.161566058130796</v>
       </c>
       <c r="E79">
-        <v>0.1357260145911215</v>
+        <v>0.1603629809143723</v>
       </c>
       <c r="F79">
-        <v>0.05840467348270283</v>
+        <v>0.0675556795088057</v>
       </c>
       <c r="G79">
-        <v>0.1167042126705812</v>
+        <v>0.1412416616982702</v>
       </c>
       <c r="H79">
-        <v>0.1632018233194177</v>
-      </c>
-      <c r="I79">
-        <v>0.1596729176915177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1917869127540311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1242235590525566</v>
+        <v>0.1454387709936217</v>
       </c>
       <c r="C80">
-        <v>0.1204089795180375</v>
+        <v>0.1369953626992227</v>
       </c>
       <c r="D80">
-        <v>0.1254616877230157</v>
+        <v>0.1449392791970063</v>
       </c>
       <c r="E80">
-        <v>0.1457796545607117</v>
+        <v>0.1659566475989245</v>
       </c>
       <c r="F80">
-        <v>0.1229712268885399</v>
+        <v>0.1387448238900622</v>
       </c>
       <c r="G80">
-        <v>0.1117103608298441</v>
+        <v>0.1276131588059536</v>
       </c>
       <c r="H80">
-        <v>0.1230327550312645</v>
-      </c>
-      <c r="I80">
-        <v>0.1264117763960301</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.140311956815209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1386646075634375</v>
+        <v>0.1640557236597174</v>
       </c>
       <c r="C81">
-        <v>0.1184236850331008</v>
+        <v>0.1396488068422027</v>
       </c>
       <c r="D81">
-        <v>0.1169037895008743</v>
+        <v>0.135281831604858</v>
       </c>
       <c r="E81">
-        <v>0.1184370117441497</v>
+        <v>0.1336116792292262</v>
       </c>
       <c r="F81">
-        <v>0.1303587806133848</v>
+        <v>0.1516603018655919</v>
       </c>
       <c r="G81">
-        <v>0.1322011648160631</v>
+        <v>0.1487777251945573</v>
       </c>
       <c r="H81">
-        <v>0.1094175496873494</v>
-      </c>
-      <c r="I81">
-        <v>0.1355934110416402</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1269639316038464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1355865654930749</v>
+        <v>0.1530109956230704</v>
       </c>
       <c r="C82">
-        <v>0.1218509509827594</v>
+        <v>0.139619125044234</v>
       </c>
       <c r="D82">
-        <v>0.109972590729201</v>
+        <v>0.1262820531771407</v>
       </c>
       <c r="E82">
-        <v>0.1139046072130289</v>
+        <v>0.1312593424400746</v>
       </c>
       <c r="F82">
-        <v>0.165762766721936</v>
+        <v>0.1913922864896889</v>
       </c>
       <c r="G82">
-        <v>0.1113485609384144</v>
+        <v>0.1255736495709902</v>
       </c>
       <c r="H82">
-        <v>0.1173638673714083</v>
-      </c>
-      <c r="I82">
-        <v>0.124210090550177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1328625476548011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1212331813107336</v>
+        <v>0.1443776257291349</v>
       </c>
       <c r="C83">
-        <v>0.1275650342954718</v>
+        <v>0.1450214438789144</v>
       </c>
       <c r="D83">
-        <v>0.1161665883805952</v>
+        <v>0.1338234377631972</v>
       </c>
       <c r="E83">
-        <v>0.1188007331990832</v>
+        <v>0.1357270370659859</v>
       </c>
       <c r="F83">
-        <v>0.1504530258888886</v>
+        <v>0.1775320984967161</v>
       </c>
       <c r="G83">
-        <v>0.09482991369072223</v>
+        <v>0.1104917764332057</v>
       </c>
       <c r="H83">
-        <v>0.1287128520459541</v>
-      </c>
-      <c r="I83">
-        <v>0.1422386711885512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1530265806328459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1577380010839787</v>
+        <v>0.1775533114802969</v>
       </c>
       <c r="C84">
-        <v>0.114604035254061</v>
+        <v>0.1313584236163189</v>
       </c>
       <c r="D84">
-        <v>0.1160717813386975</v>
+        <v>0.1304480130751486</v>
       </c>
       <c r="E84">
-        <v>0.125391630834861</v>
+        <v>0.1417683849103948</v>
       </c>
       <c r="F84">
-        <v>0.1415120288025649</v>
+        <v>0.1612944183748147</v>
       </c>
       <c r="G84">
-        <v>0.09941956834418522</v>
+        <v>0.1153909668090366</v>
       </c>
       <c r="H84">
-        <v>0.1236658713680874</v>
-      </c>
-      <c r="I84">
-        <v>0.1215970829735644</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1421864817339895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1191653154663483</v>
+        <v>0.1405840397284111</v>
       </c>
       <c r="C85">
-        <v>0.1118216724976247</v>
+        <v>0.1306989386490782</v>
       </c>
       <c r="D85">
-        <v>0.1083198176527259</v>
+        <v>0.1221124344015673</v>
       </c>
       <c r="E85">
-        <v>0.1190701099610072</v>
+        <v>0.139334904183475</v>
       </c>
       <c r="F85">
-        <v>0.1533443987044782</v>
+        <v>0.1801756700966011</v>
       </c>
       <c r="G85">
-        <v>0.09804788822007984</v>
+        <v>0.1132618663764345</v>
       </c>
       <c r="H85">
-        <v>0.151297251223554</v>
-      </c>
-      <c r="I85">
-        <v>0.1389335462741819</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1738321465644329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1434632761209876</v>
+        <v>0.1677568328154859</v>
       </c>
       <c r="C86">
-        <v>0.1200528419672184</v>
+        <v>0.1385611767570915</v>
       </c>
       <c r="D86">
-        <v>0.1167230475200144</v>
+        <v>0.1328566897587719</v>
       </c>
       <c r="E86">
-        <v>0.1228289618702321</v>
+        <v>0.1396620322551829</v>
       </c>
       <c r="F86">
-        <v>0.1143726563630408</v>
+        <v>0.1312170808551766</v>
       </c>
       <c r="G86">
-        <v>0.1261271767727628</v>
+        <v>0.1412445328134284</v>
       </c>
       <c r="H86">
-        <v>0.1259486032977575</v>
-      </c>
-      <c r="I86">
-        <v>0.1304834360879863</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1487016547448628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1114445685849694</v>
+        <v>0.134792982815617</v>
       </c>
       <c r="C87">
-        <v>0.1222655892313921</v>
+        <v>0.1451969987649119</v>
       </c>
       <c r="D87">
-        <v>0.1023569709178588</v>
+        <v>0.1208817962842602</v>
       </c>
       <c r="E87">
-        <v>0.1331471837180328</v>
+        <v>0.1526125024190648</v>
       </c>
       <c r="F87">
-        <v>0.1346588164072466</v>
+        <v>0.1538177247217572</v>
       </c>
       <c r="G87">
-        <v>0.1198942327545243</v>
+        <v>0.1420854058209741</v>
       </c>
       <c r="H87">
-        <v>0.1235585542894931</v>
-      </c>
-      <c r="I87">
-        <v>0.1526740840964829</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.1506125891734148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1280689922333229</v>
+        <v>0.1517925884873876</v>
       </c>
       <c r="C88">
-        <v>0.1152405975079203</v>
+        <v>0.1350143159837776</v>
       </c>
       <c r="D88">
-        <v>0.1025013956320942</v>
+        <v>0.1190814717916458</v>
       </c>
       <c r="E88">
-        <v>0.1280594530499874</v>
+        <v>0.147828785785098</v>
       </c>
       <c r="F88">
-        <v>0.1599403141522831</v>
+        <v>0.1781786376731607</v>
       </c>
       <c r="G88">
-        <v>0.1124371682685849</v>
+        <v>0.1297732337333069</v>
       </c>
       <c r="H88">
-        <v>0.1194205385711784</v>
-      </c>
-      <c r="I88">
-        <v>0.1343315405846286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.1383309665456235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1052900806938532</v>
+        <v>0.1176207048904338</v>
       </c>
       <c r="C89">
-        <v>0.08443972084897569</v>
+        <v>0.09554378170551858</v>
       </c>
       <c r="D89">
-        <v>0.1727990400880201</v>
+        <v>0.184351308511291</v>
       </c>
       <c r="E89">
-        <v>0.2534329578907135</v>
+        <v>0.2669068534114368</v>
       </c>
       <c r="F89">
-        <v>0.1426864991722405</v>
+        <v>0.1616839609606669</v>
       </c>
       <c r="G89">
-        <v>0.0668218297855996</v>
+        <v>0.07472896967373042</v>
       </c>
       <c r="H89">
-        <v>0.08976520631381105</v>
-      </c>
-      <c r="I89">
-        <v>0.08476466520678619</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.09916442084692248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1430710050373006</v>
+        <v>0.1624066208505619</v>
       </c>
       <c r="C90">
-        <v>0.1348629949582169</v>
+        <v>0.152069709603716</v>
       </c>
       <c r="D90">
-        <v>0.1166596557355553</v>
+        <v>0.1379142537734814</v>
       </c>
       <c r="E90">
-        <v>0.1264996220222369</v>
+        <v>0.1505679267633632</v>
       </c>
       <c r="F90">
-        <v>0.1221794498645961</v>
+        <v>0.1429099650109884</v>
       </c>
       <c r="G90">
-        <v>0.09319646817821739</v>
+        <v>0.1059946271300802</v>
       </c>
       <c r="H90">
-        <v>0.1290115204305471</v>
-      </c>
-      <c r="I90">
-        <v>0.1345192837733296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.1481368968678089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1369747203385736</v>
+        <v>0.1559193286449756</v>
       </c>
       <c r="C91">
-        <v>0.1100488908849216</v>
+        <v>0.1229953819275384</v>
       </c>
       <c r="D91">
-        <v>0.1292466835450118</v>
+        <v>0.1503767930915448</v>
       </c>
       <c r="E91">
-        <v>0.1519108516073401</v>
+        <v>0.171521194403277</v>
       </c>
       <c r="F91">
-        <v>0.1433525920463173</v>
+        <v>0.1641544370100697</v>
       </c>
       <c r="G91">
-        <v>0.09466781862536486</v>
+        <v>0.1074126730412812</v>
       </c>
       <c r="H91">
-        <v>0.1157742489713825</v>
-      </c>
-      <c r="I91">
-        <v>0.1180241939810883</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1276201918813135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.123473159880372</v>
+        <v>0.1431209846015659</v>
       </c>
       <c r="C92">
-        <v>0.1002833086040892</v>
+        <v>0.1162962549129151</v>
       </c>
       <c r="D92">
-        <v>0.1720375648000415</v>
+        <v>0.1975780962958509</v>
       </c>
       <c r="E92">
-        <v>0.1733723803943198</v>
+        <v>0.1942653558116637</v>
       </c>
       <c r="F92">
-        <v>0.1304573317521216</v>
+        <v>0.1521395656165522</v>
       </c>
       <c r="G92">
-        <v>0.09259627087682602</v>
+        <v>0.1052129999336572</v>
       </c>
       <c r="H92">
-        <v>0.07936921046882163</v>
-      </c>
-      <c r="I92">
-        <v>0.1284107732234082</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.09138674282779498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1416139738418037</v>
+        <v>0.150867468102457</v>
       </c>
       <c r="C93">
-        <v>0.06955648770588313</v>
+        <v>0.07871904130897565</v>
       </c>
       <c r="D93">
-        <v>0.1435489814648838</v>
+        <v>0.1615061328759491</v>
       </c>
       <c r="E93">
-        <v>0.149680417088994</v>
+        <v>0.1651485589215987</v>
       </c>
       <c r="F93">
-        <v>0.1795255757920131</v>
+        <v>0.2092574726132926</v>
       </c>
       <c r="G93">
-        <v>0.08292678443519617</v>
+        <v>0.09324220530583416</v>
       </c>
       <c r="H93">
-        <v>0.1271146382884876</v>
-      </c>
-      <c r="I93">
-        <v>0.1060331413827386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.1412591208718928</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1464453501074922</v>
+        <v>0.1675777484052894</v>
       </c>
       <c r="C94">
-        <v>0.1340871354952701</v>
+        <v>0.1516244640358237</v>
       </c>
       <c r="D94">
-        <v>0.1183888783245398</v>
+        <v>0.1337186005179076</v>
       </c>
       <c r="E94">
-        <v>0.120255608639219</v>
+        <v>0.1364353759656571</v>
       </c>
       <c r="F94">
-        <v>0.14610220162856</v>
+        <v>0.1674781645356977</v>
       </c>
       <c r="G94">
-        <v>0.09444791581003377</v>
+        <v>0.1082042035733986</v>
       </c>
       <c r="H94">
-        <v>0.1183376459821091</v>
-      </c>
-      <c r="I94">
-        <v>0.121935264012776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1349614429662258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1354249227079869</v>
+        <v>0.1507726942223593</v>
       </c>
       <c r="C95">
-        <v>0.1333327041049679</v>
+        <v>0.1558248511299527</v>
       </c>
       <c r="D95">
-        <v>0.1058333295765255</v>
+        <v>0.1220464681715116</v>
       </c>
       <c r="E95">
-        <v>0.1120017201504237</v>
+        <v>0.1278856667035925</v>
       </c>
       <c r="F95">
-        <v>0.1369416530695858</v>
+        <v>0.1604165752164609</v>
       </c>
       <c r="G95">
-        <v>0.1294543444743436</v>
+        <v>0.1511388053932525</v>
       </c>
       <c r="H95">
-        <v>0.1187243475172538</v>
-      </c>
-      <c r="I95">
-        <v>0.1282869783989127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1319149391628705</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1281938038616803</v>
+        <v>0.1458485537744755</v>
       </c>
       <c r="C96">
-        <v>0.1247668693620004</v>
+        <v>0.1475837180779524</v>
       </c>
       <c r="D96">
-        <v>0.1184295800029321</v>
+        <v>0.1346812498752569</v>
       </c>
       <c r="E96">
-        <v>0.1224068720114356</v>
+        <v>0.1406296058189488</v>
       </c>
       <c r="F96">
-        <v>0.103967140478268</v>
+        <v>0.1207919053888364</v>
       </c>
       <c r="G96">
-        <v>0.1407615346039499</v>
+        <v>0.1579852157981191</v>
       </c>
       <c r="H96">
-        <v>0.1333981609844307</v>
-      </c>
-      <c r="I96">
-        <v>0.128076038695303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.1524797512664108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1039588939573294</v>
+        <v>0.1181244187764298</v>
       </c>
       <c r="C97">
-        <v>0.1161594068603818</v>
+        <v>0.1338262860434049</v>
       </c>
       <c r="D97">
-        <v>0.1151443904078355</v>
+        <v>0.1307983654360231</v>
       </c>
       <c r="E97">
-        <v>0.110511174379082</v>
+        <v>0.1256951244876252</v>
       </c>
       <c r="F97">
-        <v>0.119484293059259</v>
+        <v>0.1409622636750887</v>
       </c>
       <c r="G97">
-        <v>0.1829732358862476</v>
+        <v>0.2037907554735445</v>
       </c>
       <c r="H97">
-        <v>0.128071819422519</v>
-      </c>
-      <c r="I97">
-        <v>0.1236967860273456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.1468027861078838</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1229292150796312</v>
+        <v>0.1417514073205599</v>
       </c>
       <c r="C98">
-        <v>0.1119106606987212</v>
+        <v>0.1335559088487283</v>
       </c>
       <c r="D98">
-        <v>0.1106697428273441</v>
+        <v>0.1282973270245149</v>
       </c>
       <c r="E98">
-        <v>0.1152400689712558</v>
+        <v>0.1333009227646083</v>
       </c>
       <c r="F98">
-        <v>0.1366700259860883</v>
+        <v>0.1619115310076171</v>
       </c>
       <c r="G98">
-        <v>0.1283928272406162</v>
+        <v>0.1493488137039619</v>
       </c>
       <c r="H98">
-        <v>0.1337843305391595</v>
-      </c>
-      <c r="I98">
-        <v>0.1404031286571839</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.1518340893300096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1329242316326865</v>
+        <v>0.1513589079172476</v>
       </c>
       <c r="C99">
-        <v>0.1319587486751416</v>
+        <v>0.1519984697654704</v>
       </c>
       <c r="D99">
-        <v>0.1203087238663027</v>
+        <v>0.1395177016384136</v>
       </c>
       <c r="E99">
-        <v>0.1270497849273565</v>
+        <v>0.1474056176854877</v>
       </c>
       <c r="F99">
-        <v>0.1359574745105041</v>
+        <v>0.1525974508790131</v>
       </c>
       <c r="G99">
-        <v>0.09554239267546978</v>
+        <v>0.1133559254777847</v>
       </c>
       <c r="H99">
-        <v>0.1267540928058742</v>
-      </c>
-      <c r="I99">
-        <v>0.1295045509066647</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.1437659266365829</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1319631641953487</v>
+        <v>0.1530994200436889</v>
       </c>
       <c r="C100">
-        <v>0.1095202518785333</v>
+        <v>0.1251519236585218</v>
       </c>
       <c r="D100">
-        <v>0.1347131475058617</v>
+        <v>0.1532215590249182</v>
       </c>
       <c r="E100">
-        <v>0.1424986661375649</v>
+        <v>0.1561803023094503</v>
       </c>
       <c r="F100">
-        <v>0.1355777595807789</v>
+        <v>0.1512080409354817</v>
       </c>
       <c r="G100">
-        <v>0.09840538055299509</v>
+        <v>0.1137712124403013</v>
       </c>
       <c r="H100">
-        <v>0.1304880765201641</v>
-      </c>
-      <c r="I100">
-        <v>0.1168335536287532</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.147367541587638</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.07458031075161972</v>
+        <v>0.07913852833548343</v>
       </c>
       <c r="C101">
-        <v>0.06338942875164491</v>
+        <v>0.06561769194023281</v>
       </c>
       <c r="D101">
-        <v>0.2339631144221244</v>
+        <v>0.2433986561597453</v>
       </c>
       <c r="E101">
-        <v>0.1684239072672938</v>
+        <v>0.183685144975712</v>
       </c>
       <c r="F101">
-        <v>0.2662596356098979</v>
+        <v>0.2868673890858073</v>
       </c>
       <c r="G101">
-        <v>0.06470496532065406</v>
+        <v>0.06986358058490044</v>
       </c>
       <c r="H101">
-        <v>0.06905346311411222</v>
-      </c>
-      <c r="I101">
-        <v>0.05962517476265287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.07142900891811878</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.07147353551933636</v>
+        <v>0.07744958748559287</v>
       </c>
       <c r="C102">
-        <v>0.07471619271043668</v>
+        <v>0.08193632792398108</v>
       </c>
       <c r="D102">
-        <v>0.1932183332787332</v>
+        <v>0.2121060329484624</v>
       </c>
       <c r="E102">
-        <v>0.1686654923952998</v>
+        <v>0.1801055984268247</v>
       </c>
       <c r="F102">
-        <v>0.2161158975229183</v>
+        <v>0.2393008475840966</v>
       </c>
       <c r="G102">
-        <v>0.1168886153015929</v>
+        <v>0.1281840764981954</v>
       </c>
       <c r="H102">
-        <v>0.07241150631021298</v>
-      </c>
-      <c r="I102">
-        <v>0.08651042696146981</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.08091752913284707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.06284215428151825</v>
+        <v>0.06699290425503691</v>
       </c>
       <c r="C103">
-        <v>0.07292083683093313</v>
+        <v>0.0759913657788792</v>
       </c>
       <c r="D103">
-        <v>0.2252057791669516</v>
+        <v>0.2393512417067127</v>
       </c>
       <c r="E103">
-        <v>0.190785167002073</v>
+        <v>0.2043274792296527</v>
       </c>
       <c r="F103">
-        <v>0.2798619159815954</v>
+        <v>0.2997742718495887</v>
       </c>
       <c r="G103">
-        <v>0.04636338259831124</v>
+        <v>0.04995709621600293</v>
       </c>
       <c r="H103">
-        <v>0.05946399414535745</v>
-      </c>
-      <c r="I103">
-        <v>0.06255676999325986</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.06360564096412689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.02579457531715451</v>
+        <v>0.02805375047698631</v>
       </c>
       <c r="C104">
-        <v>0.1951816452935006</v>
+        <v>0.2146530674295793</v>
       </c>
       <c r="D104">
-        <v>0.03818798848750454</v>
+        <v>0.04355823390837951</v>
       </c>
       <c r="E104">
-        <v>0.05543068278834386</v>
+        <v>0.06040627834996132</v>
       </c>
       <c r="F104">
-        <v>0.1717044884199505</v>
+        <v>0.2067290027708721</v>
       </c>
       <c r="G104">
-        <v>0.379926856642863</v>
+        <v>0.3996271807115323</v>
       </c>
       <c r="H104">
-        <v>0.04043640588993596</v>
-      </c>
-      <c r="I104">
-        <v>0.09333735716074708</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.04697248635268932</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1343557268454718</v>
+        <v>0.1490969804755043</v>
       </c>
       <c r="C105">
-        <v>0.1091973238531992</v>
+        <v>0.1287352251653477</v>
       </c>
       <c r="D105">
-        <v>0.09199363289113251</v>
+        <v>0.1020552908306427</v>
       </c>
       <c r="E105">
-        <v>0.1200207227692121</v>
+        <v>0.1389027061693746</v>
       </c>
       <c r="F105">
-        <v>0.1576302162249992</v>
+        <v>0.1842925311944035</v>
       </c>
       <c r="G105">
-        <v>0.1475065124029822</v>
+        <v>0.16633123424218</v>
       </c>
       <c r="H105">
-        <v>0.1111130536989003</v>
-      </c>
-      <c r="I105">
-        <v>0.1281828113141026</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1305860319225472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1328174268751469</v>
+        <v>0.1545058793235839</v>
       </c>
       <c r="C106">
-        <v>0.1205608497084584</v>
+        <v>0.1389134928698346</v>
       </c>
       <c r="D106">
-        <v>0.116441596337162</v>
+        <v>0.134334438455284</v>
       </c>
       <c r="E106">
-        <v>0.1277277075703351</v>
+        <v>0.1482853714561937</v>
       </c>
       <c r="F106">
-        <v>0.1401157752470978</v>
+        <v>0.1580151830941909</v>
       </c>
       <c r="G106">
-        <v>0.1085920495280113</v>
+        <v>0.1233090923650226</v>
       </c>
       <c r="H106">
-        <v>0.1216169639045421</v>
-      </c>
-      <c r="I106">
-        <v>0.1321276308292465</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.1426365424358902</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.128642650614581</v>
+        <v>0.1482690499524892</v>
       </c>
       <c r="C107">
-        <v>0.1203442303339531</v>
+        <v>0.1370204183024165</v>
       </c>
       <c r="D107">
-        <v>0.1304893757006282</v>
+        <v>0.148213062265037</v>
       </c>
       <c r="E107">
-        <v>0.1309878872156918</v>
+        <v>0.1487448498662801</v>
       </c>
       <c r="F107">
-        <v>0.1493588896930853</v>
+        <v>0.1717923149457217</v>
       </c>
       <c r="G107">
-        <v>0.09703136916380514</v>
+        <v>0.1108776342825617</v>
       </c>
       <c r="H107">
-        <v>0.1165235668986801</v>
-      </c>
-      <c r="I107">
-        <v>0.1266220303795755</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1350826703854937</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1271525752944161</v>
+        <v>0.1479343795315362</v>
       </c>
       <c r="C108">
-        <v>0.120674208750803</v>
+        <v>0.1392810715518726</v>
       </c>
       <c r="D108">
-        <v>0.1150669991593053</v>
+        <v>0.1335944469511552</v>
       </c>
       <c r="E108">
-        <v>0.1213815972391847</v>
+        <v>0.1409544995009656</v>
       </c>
       <c r="F108">
-        <v>0.1412969151246933</v>
+        <v>0.1618919167222272</v>
       </c>
       <c r="G108">
-        <v>0.1283088825613458</v>
+        <v>0.143761588015017</v>
       </c>
       <c r="H108">
-        <v>0.1143757876822792</v>
-      </c>
-      <c r="I108">
-        <v>0.1317430341879727</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1325820977272262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.1168834293612781</v>
+        <v>0.1356692102886513</v>
       </c>
       <c r="C109">
-        <v>0.1168716240949257</v>
+        <v>0.1345638692924754</v>
       </c>
       <c r="D109">
-        <v>0.127800048022847</v>
+        <v>0.146449924517078</v>
       </c>
       <c r="E109">
-        <v>0.1303871469325876</v>
+        <v>0.1476723114766342</v>
       </c>
       <c r="F109">
-        <v>0.1499258414638738</v>
+        <v>0.1731012424467477</v>
       </c>
       <c r="G109">
-        <v>0.1031687761476719</v>
+        <v>0.1172950182240081</v>
       </c>
       <c r="H109">
-        <v>0.1272599341290667</v>
-      </c>
-      <c r="I109">
-        <v>0.1277031998477491</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.1452484237544053</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1311331292907683</v>
+        <v>0.1526687683338016</v>
       </c>
       <c r="C110">
-        <v>0.1222530693975595</v>
+        <v>0.1383134832552529</v>
       </c>
       <c r="D110">
-        <v>0.1286399980730704</v>
+        <v>0.1509961026286525</v>
       </c>
       <c r="E110">
-        <v>0.1388482836286719</v>
+        <v>0.162288630611585</v>
       </c>
       <c r="F110">
-        <v>0.1039134360399173</v>
+        <v>0.1173686139482749</v>
       </c>
       <c r="G110">
-        <v>0.1141735091327705</v>
+        <v>0.1285717239416451</v>
       </c>
       <c r="H110">
-        <v>0.1291433608260452</v>
-      </c>
-      <c r="I110">
-        <v>0.1318952136111969</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.1497926772807882</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.1242227524794669</v>
+        <v>0.1430451201513692</v>
       </c>
       <c r="C111">
-        <v>0.1216772064055735</v>
+        <v>0.1386309546817255</v>
       </c>
       <c r="D111">
-        <v>0.1138109673931687</v>
+        <v>0.1294322654883589</v>
       </c>
       <c r="E111">
-        <v>0.1306574521637512</v>
+        <v>0.1497190872771433</v>
       </c>
       <c r="F111">
-        <v>0.1134453836827945</v>
+        <v>0.1334125912101713</v>
       </c>
       <c r="G111">
-        <v>0.1538356609858788</v>
+        <v>0.1748300280174348</v>
       </c>
       <c r="H111">
-        <v>0.1140725341775909</v>
-      </c>
-      <c r="I111">
-        <v>0.1282780427117753</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.1309299531737968</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.1113474028199124</v>
+        <v>0.1308542895033448</v>
       </c>
       <c r="C112">
-        <v>0.135012081358266</v>
+        <v>0.1566743955294885</v>
       </c>
       <c r="D112">
-        <v>0.1132508666358458</v>
+        <v>0.1289985070424934</v>
       </c>
       <c r="E112">
-        <v>0.1138143191025168</v>
+        <v>0.1292081640318313</v>
       </c>
       <c r="F112">
-        <v>0.09413547727852904</v>
+        <v>0.114228883126254</v>
       </c>
       <c r="G112">
-        <v>0.1606517501994625</v>
+        <v>0.1826504551788352</v>
       </c>
       <c r="H112">
-        <v>0.13774291163367</v>
-      </c>
-      <c r="I112">
-        <v>0.1340451909717974</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.157385305587753</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1282412213649589</v>
+        <v>0.1527193596421954</v>
       </c>
       <c r="C113">
-        <v>0.1225792814634866</v>
+        <v>0.1324203132913143</v>
       </c>
       <c r="D113">
-        <v>0.1167111597562512</v>
+        <v>0.1353463747594832</v>
       </c>
       <c r="E113">
-        <v>0.1160406895667617</v>
+        <v>0.1334805289792277</v>
       </c>
       <c r="F113">
-        <v>0.1572370023576431</v>
+        <v>0.185099229506657</v>
       </c>
       <c r="G113">
-        <v>0.10784307846547</v>
+        <v>0.1212283894599255</v>
       </c>
       <c r="H113">
-        <v>0.1222399552846513</v>
-      </c>
-      <c r="I113">
-        <v>0.1291076117407774</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1397058043611969</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1221890016162342</v>
+        <v>0.1417919433054809</v>
       </c>
       <c r="C114">
-        <v>0.1213816393456313</v>
+        <v>0.1480937179674854</v>
       </c>
       <c r="D114">
-        <v>0.1121634719761994</v>
+        <v>0.1324085770346695</v>
       </c>
       <c r="E114">
-        <v>0.1238108710961641</v>
+        <v>0.1435857212843579</v>
       </c>
       <c r="F114">
-        <v>0.1460518498105566</v>
+        <v>0.1645768131465014</v>
       </c>
       <c r="G114">
-        <v>0.1091966822556423</v>
+        <v>0.1294156054462403</v>
       </c>
       <c r="H114">
-        <v>0.1188696660237387</v>
-      </c>
-      <c r="I114">
-        <v>0.1463368178758335</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1401276218152647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.143026869233972</v>
+        <v>0.1660107858992234</v>
       </c>
       <c r="C115">
-        <v>0.1285784904295887</v>
+        <v>0.1505851647984876</v>
       </c>
       <c r="D115">
-        <v>0.1031372220675347</v>
+        <v>0.1206547257801502</v>
       </c>
       <c r="E115">
-        <v>0.1084194974988668</v>
+        <v>0.1272279516728279</v>
       </c>
       <c r="F115">
-        <v>0.1206118107823471</v>
+        <v>0.1484216329217485</v>
       </c>
       <c r="G115">
-        <v>0.1096971607645009</v>
+        <v>0.1285728382491819</v>
       </c>
       <c r="H115">
-        <v>0.136128917373018</v>
-      </c>
-      <c r="I115">
-        <v>0.150400031850172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.1585269006783805</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.1350620235965641</v>
+        <v>0.1504609973579681</v>
       </c>
       <c r="C116">
-        <v>0.1194750491420506</v>
+        <v>0.1364799364319474</v>
       </c>
       <c r="D116">
-        <v>0.1124474086960357</v>
+        <v>0.1250762710573259</v>
       </c>
       <c r="E116">
-        <v>0.1233414161471629</v>
+        <v>0.1337535516909292</v>
       </c>
       <c r="F116">
-        <v>0.1654709645867063</v>
+        <v>0.1908802314493543</v>
       </c>
       <c r="G116">
-        <v>0.1007221236091933</v>
+        <v>0.1099867301154063</v>
       </c>
       <c r="H116">
-        <v>0.1327835975437944</v>
-      </c>
-      <c r="I116">
-        <v>0.1106974166784925</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.1533622818970689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.08407368835387941</v>
+        <v>0.09077531546129688</v>
       </c>
       <c r="C117">
-        <v>0.06374620304777186</v>
+        <v>0.06844829103158387</v>
       </c>
       <c r="D117">
-        <v>0.225829604230457</v>
+        <v>0.2432519247045436</v>
       </c>
       <c r="E117">
-        <v>0.1850528494898838</v>
+        <v>0.2011647036554011</v>
       </c>
       <c r="F117">
-        <v>0.2225998876048446</v>
+        <v>0.2400771503926969</v>
       </c>
       <c r="G117">
-        <v>0.06509760613735235</v>
+        <v>0.07173179801192765</v>
       </c>
       <c r="H117">
-        <v>0.07749558845082219</v>
-      </c>
-      <c r="I117">
-        <v>0.07610457268498869</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.08455081674255005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0960736893225224</v>
+        <v>0.1051277551621446</v>
       </c>
       <c r="C118">
-        <v>0.07498303127938606</v>
+        <v>0.08225472159939715</v>
       </c>
       <c r="D118">
-        <v>0.1621216150081703</v>
+        <v>0.1712080078297594</v>
       </c>
       <c r="E118">
-        <v>0.1373104866509139</v>
+        <v>0.1470827960222492</v>
       </c>
       <c r="F118">
-        <v>0.2912665840474573</v>
+        <v>0.327885347533512</v>
       </c>
       <c r="G118">
-        <v>0.07071440373331944</v>
+        <v>0.07821022867324319</v>
       </c>
       <c r="H118">
-        <v>0.08099881399532964</v>
-      </c>
-      <c r="I118">
-        <v>0.08653137596290096</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.08823114317969444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.09910433070049357</v>
+        <v>0.1074586696378084</v>
       </c>
       <c r="C119">
-        <v>0.07319531865446739</v>
+        <v>0.08024313053864165</v>
       </c>
       <c r="D119">
-        <v>0.1934014002241634</v>
+        <v>0.2115562574720509</v>
       </c>
       <c r="E119">
-        <v>0.1340384452432618</v>
+        <v>0.1392358256208836</v>
       </c>
       <c r="F119">
-        <v>0.2716323945302467</v>
+        <v>0.3015229021000391</v>
       </c>
       <c r="G119">
-        <v>0.06733605473791177</v>
+        <v>0.07381976587299771</v>
       </c>
       <c r="H119">
-        <v>0.07992685710559883</v>
-      </c>
-      <c r="I119">
-        <v>0.08136519880385651</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.08616344875757866</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.09344423678254928</v>
+        <v>0.09922287703884052</v>
       </c>
       <c r="C120">
-        <v>0.06680104775191099</v>
+        <v>0.07186343593015797</v>
       </c>
       <c r="D120">
-        <v>0.1951672753315187</v>
+        <v>0.2141844031221023</v>
       </c>
       <c r="E120">
-        <v>0.1458893468312639</v>
+        <v>0.1578948645293305</v>
       </c>
       <c r="F120">
-        <v>0.289443112322392</v>
+        <v>0.3189139658981335</v>
       </c>
       <c r="G120">
-        <v>0.05704902396048568</v>
+        <v>0.06159921861176261</v>
       </c>
       <c r="H120">
-        <v>0.07217411215634816</v>
-      </c>
-      <c r="I120">
-        <v>0.08003184486353133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.0763212348696726</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1255177556926335</v>
+        <v>0.1430319001444953</v>
       </c>
       <c r="C121">
-        <v>0.1332441028477434</v>
+        <v>0.1541223002827205</v>
       </c>
       <c r="D121">
-        <v>0.1246647863758482</v>
+        <v>0.1336069037671394</v>
       </c>
       <c r="E121">
-        <v>0.1342524368813936</v>
+        <v>0.1498053427736778</v>
       </c>
       <c r="F121">
-        <v>0.1299622695867814</v>
+        <v>0.1485649787463337</v>
       </c>
       <c r="G121">
-        <v>0.1205784600831794</v>
+        <v>0.1410148247074813</v>
       </c>
       <c r="H121">
-        <v>0.1135668452134646</v>
-      </c>
-      <c r="I121">
-        <v>0.1182133433189558</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1298537495781522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.08797002187223511</v>
+        <v>0.09494425227163371</v>
       </c>
       <c r="C122">
-        <v>0.07115407512280057</v>
+        <v>0.07738480635160123</v>
       </c>
       <c r="D122">
-        <v>0.2117825258299809</v>
+        <v>0.2372300901108078</v>
       </c>
       <c r="E122">
-        <v>0.1696758272071254</v>
+        <v>0.1859681576201597</v>
       </c>
       <c r="F122">
-        <v>0.2228318592761664</v>
+        <v>0.23580033588213</v>
       </c>
       <c r="G122">
-        <v>0.07360850500219525</v>
+        <v>0.07930171403166429</v>
       </c>
       <c r="H122">
-        <v>0.08303976204262173</v>
-      </c>
-      <c r="I122">
-        <v>0.07993742364687466</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.08937064373200322</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1333565914637419</v>
+        <v>0.1561426609090042</v>
       </c>
       <c r="C123">
-        <v>0.1263950447942919</v>
+        <v>0.1465184736404129</v>
       </c>
       <c r="D123">
-        <v>0.116425162525139</v>
+        <v>0.1350789163377031</v>
       </c>
       <c r="E123">
-        <v>0.1286567573493176</v>
+        <v>0.1480315248504282</v>
       </c>
       <c r="F123">
-        <v>0.1093937546737875</v>
+        <v>0.1329449950327961</v>
       </c>
       <c r="G123">
-        <v>0.1146394740412683</v>
+        <v>0.1345548408741001</v>
       </c>
       <c r="H123">
-        <v>0.1275840976557097</v>
-      </c>
-      <c r="I123">
-        <v>0.1435491174967441</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1467285883555554</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1124098937849463</v>
+        <v>0.127874239039223</v>
       </c>
       <c r="C124">
-        <v>0.1377138744290526</v>
+        <v>0.1578291013078395</v>
       </c>
       <c r="D124">
-        <v>0.1114845619118339</v>
+        <v>0.1335225504635343</v>
       </c>
       <c r="E124">
-        <v>0.1262534970723886</v>
+        <v>0.1498112797585525</v>
       </c>
       <c r="F124">
-        <v>0.1372163051915866</v>
+        <v>0.1644041106739206</v>
       </c>
       <c r="G124">
-        <v>0.1052741641130702</v>
+        <v>0.1226729672265911</v>
       </c>
       <c r="H124">
-        <v>0.1200882045036084</v>
-      </c>
-      <c r="I124">
-        <v>0.1495594989935135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.143885751530339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1264619044121302</v>
+        <v>0.1469963990922533</v>
       </c>
       <c r="C125">
-        <v>0.1371488667130863</v>
+        <v>0.1575070767852339</v>
       </c>
       <c r="D125">
-        <v>0.1241046031319604</v>
+        <v>0.1448152518246876</v>
       </c>
       <c r="E125">
-        <v>0.1380032340443724</v>
+        <v>0.1632172261881024</v>
       </c>
       <c r="F125">
-        <v>0.08220163075688779</v>
+        <v>0.09911321437192563</v>
       </c>
       <c r="G125">
-        <v>0.1157395621189148</v>
+        <v>0.1335662616391025</v>
       </c>
       <c r="H125">
-        <v>0.1338039326760447</v>
-      </c>
-      <c r="I125">
-        <v>0.1425362661466034</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.1547845700986945</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1184363450733283</v>
+        <v>0.1386021755601066</v>
       </c>
       <c r="C126">
-        <v>0.1308233988411012</v>
+        <v>0.149038805392199</v>
       </c>
       <c r="D126">
-        <v>0.1351121653909891</v>
+        <v>0.1582883372749498</v>
       </c>
       <c r="E126">
-        <v>0.118266328640895</v>
+        <v>0.1361649172840283</v>
       </c>
       <c r="F126">
-        <v>0.08373971671207665</v>
+        <v>0.09853023776802067</v>
       </c>
       <c r="G126">
-        <v>0.1335889701773443</v>
+        <v>0.1526117018903035</v>
       </c>
       <c r="H126">
-        <v>0.1452339471704921</v>
-      </c>
-      <c r="I126">
-        <v>0.1347991279937734</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.1667638248303921</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1562626964197886</v>
+        <v>0.1775324543889601</v>
       </c>
       <c r="C127">
-        <v>0.1460689418715301</v>
+        <v>0.172427642822768</v>
       </c>
       <c r="D127">
-        <v>0.1203471630008539</v>
+        <v>0.1371474496707721</v>
       </c>
       <c r="E127">
-        <v>0.1196953629170333</v>
+        <v>0.1344469821296438</v>
       </c>
       <c r="F127">
-        <v>0.09977896266097577</v>
+        <v>0.1183083954944887</v>
       </c>
       <c r="G127">
-        <v>0.08986597492993466</v>
+        <v>0.1050560095629873</v>
       </c>
       <c r="H127">
-        <v>0.1334774634000078</v>
-      </c>
-      <c r="I127">
-        <v>0.1345034347998759</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.15508106593038</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.1233920443865181</v>
+        <v>0.143512925129214</v>
       </c>
       <c r="C128">
-        <v>0.1307075684294806</v>
+        <v>0.1517247828610368</v>
       </c>
       <c r="D128">
-        <v>0.1077086531377423</v>
+        <v>0.1237609234290266</v>
       </c>
       <c r="E128">
-        <v>0.1197660473644088</v>
+        <v>0.1414326920215178</v>
       </c>
       <c r="F128">
-        <v>0.1283970879424751</v>
+        <v>0.1480880285995817</v>
       </c>
       <c r="G128">
-        <v>0.1177558340456323</v>
+        <v>0.1361377668042374</v>
       </c>
       <c r="H128">
-        <v>0.1364155482279298</v>
-      </c>
-      <c r="I128">
-        <v>0.135857216465813</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.1553428811553857</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1309261725734354</v>
+        <v>0.1542461993471007</v>
       </c>
       <c r="C129">
-        <v>0.1160374837704623</v>
+        <v>0.1320638517071475</v>
       </c>
       <c r="D129">
-        <v>0.1317370825328613</v>
+        <v>0.1548457825863914</v>
       </c>
       <c r="E129">
-        <v>0.1343527520938567</v>
+        <v>0.1603303016561597</v>
       </c>
       <c r="F129">
-        <v>0.06673519374281658</v>
+        <v>0.07833453594861682</v>
       </c>
       <c r="G129">
-        <v>0.1371072736310074</v>
+        <v>0.1583938899331401</v>
       </c>
       <c r="H129">
-        <v>0.141391157185617</v>
-      </c>
-      <c r="I129">
-        <v>0.1417128844699433</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.1617854388214436</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.1180162468718598</v>
+        <v>0.1426107423306163</v>
       </c>
       <c r="C130">
-        <v>0.1587648342323236</v>
+        <v>0.1828833137005161</v>
       </c>
       <c r="D130">
-        <v>0.1079480068566484</v>
+        <v>0.1252796231720401</v>
       </c>
       <c r="E130">
-        <v>0.1174558411458827</v>
+        <v>0.1377598250754331</v>
       </c>
       <c r="F130">
-        <v>0.07617091560371021</v>
+        <v>0.09621008355442032</v>
       </c>
       <c r="G130">
-        <v>0.1058302729368938</v>
+        <v>0.1254829124667343</v>
       </c>
       <c r="H130">
-        <v>0.1633792798289526</v>
-      </c>
-      <c r="I130">
-        <v>0.1524346025237289</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.18977349970024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.09704743922080379</v>
+        <v>0.1176171639137016</v>
       </c>
       <c r="C131">
-        <v>0.1602798046599064</v>
+        <v>0.1881464407610799</v>
       </c>
       <c r="D131">
-        <v>0.1081624362700444</v>
+        <v>0.1268875339300224</v>
       </c>
       <c r="E131">
-        <v>0.1114321500807583</v>
+        <v>0.1317781262175831</v>
       </c>
       <c r="F131">
-        <v>0.07756464220777927</v>
+        <v>0.09903008352645375</v>
       </c>
       <c r="G131">
-        <v>0.134402896656439</v>
+        <v>0.1570587073016716</v>
       </c>
       <c r="H131">
-        <v>0.1524911631424948</v>
-      </c>
-      <c r="I131">
-        <v>0.158619467761774</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.1794819443494876</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.08941769499476718</v>
+        <v>0.1017129459911088</v>
       </c>
       <c r="C132">
-        <v>0.125936565330576</v>
+        <v>0.1445010356903717</v>
       </c>
       <c r="D132">
-        <v>0.1325125072866331</v>
+        <v>0.1608761972986627</v>
       </c>
       <c r="E132">
-        <v>0.1464327186393298</v>
+        <v>0.1797774781801601</v>
       </c>
       <c r="F132">
-        <v>0.04646933973208042</v>
+        <v>0.05548467146316832</v>
       </c>
       <c r="G132">
-        <v>0.1778946228580346</v>
+        <v>0.1981436355533741</v>
       </c>
       <c r="H132">
-        <v>0.1404107902054973</v>
-      </c>
-      <c r="I132">
-        <v>0.1409257609530817</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1595040358231543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1228207843237995</v>
+        <v>0.1430212088607347</v>
       </c>
       <c r="C133">
-        <v>0.2266951529440167</v>
+        <v>0.263301609534727</v>
       </c>
       <c r="D133">
-        <v>0.0795966708415944</v>
+        <v>0.09125607958628329</v>
       </c>
       <c r="E133">
-        <v>0.08149455302632951</v>
+        <v>0.09435922148565144</v>
       </c>
       <c r="F133">
-        <v>0.04313483597589469</v>
+        <v>0.0515835551250849</v>
       </c>
       <c r="G133">
-        <v>0.2067298534224771</v>
+        <v>0.2384465081724275</v>
       </c>
       <c r="H133">
-        <v>0.102113724144438</v>
-      </c>
-      <c r="I133">
-        <v>0.1374144253214501</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.1180318172350911</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.09258537391109541</v>
+        <v>0.1086614253558874</v>
       </c>
       <c r="C134">
-        <v>0.1263248804874109</v>
+        <v>0.1415630671643402</v>
       </c>
       <c r="D134">
-        <v>0.1192702022321015</v>
+        <v>0.1332472107711681</v>
       </c>
       <c r="E134">
-        <v>0.1236899167774867</v>
+        <v>0.139621954092111</v>
       </c>
       <c r="F134">
-        <v>0.1177463157395766</v>
+        <v>0.1368484757970569</v>
       </c>
       <c r="G134">
-        <v>0.1309909937021466</v>
+        <v>0.1562819418335473</v>
       </c>
       <c r="H134">
-        <v>0.1601920314720028</v>
-      </c>
-      <c r="I134">
-        <v>0.1292002856781794</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.1837759249858892</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.09740609255233847</v>
+        <v>0.1167424264784828</v>
       </c>
       <c r="C135">
-        <v>0.1580888107885197</v>
+        <v>0.1820039047223845</v>
       </c>
       <c r="D135">
-        <v>0.104974299691175</v>
+        <v>0.1226316463517461</v>
       </c>
       <c r="E135">
-        <v>0.1148480572506744</v>
+        <v>0.1321991824065226</v>
       </c>
       <c r="F135">
-        <v>0.06778796849610172</v>
+        <v>0.08468020194244767</v>
       </c>
       <c r="G135">
-        <v>0.1245506638396427</v>
+        <v>0.1477534196315065</v>
       </c>
       <c r="H135">
-        <v>0.1842757190275544</v>
-      </c>
-      <c r="I135">
-        <v>0.1480683883539934</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.2139892184669098</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.1472455943384154</v>
+        <v>0.1680550526027647</v>
       </c>
       <c r="C136">
-        <v>0.1098396519569482</v>
+        <v>0.1185891957856584</v>
       </c>
       <c r="D136">
-        <v>0.1136721269262421</v>
+        <v>0.1293015976981704</v>
       </c>
       <c r="E136">
-        <v>0.127540005600815</v>
+        <v>0.1455943193711727</v>
       </c>
       <c r="F136">
-        <v>0.1191019593749726</v>
+        <v>0.1311158649586489</v>
       </c>
       <c r="G136">
-        <v>0.1597161977343126</v>
+        <v>0.1761137819398109</v>
       </c>
       <c r="H136">
-        <v>0.1158675521925444</v>
-      </c>
-      <c r="I136">
-        <v>0.1070169118757497</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.131230187643774</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.110757676554638</v>
+        <v>0.1303889010476268</v>
       </c>
       <c r="C137">
-        <v>0.149902859342751</v>
+        <v>0.1723454698500343</v>
       </c>
       <c r="D137">
-        <v>0.1279944934866033</v>
+        <v>0.1505078117263808</v>
       </c>
       <c r="E137">
-        <v>0.1272562097828427</v>
+        <v>0.1471443832604705</v>
       </c>
       <c r="F137">
-        <v>0.07635386476854979</v>
+        <v>0.08415507408001938</v>
       </c>
       <c r="G137">
-        <v>0.1361808920665256</v>
+        <v>0.1604748700029079</v>
       </c>
       <c r="H137">
-        <v>0.1300174131736324</v>
-      </c>
-      <c r="I137">
-        <v>0.1415365908244574</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.1549834900325603</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1187227534525027</v>
+        <v>0.1366683068675252</v>
       </c>
       <c r="C138">
-        <v>0.1352317868544333</v>
+        <v>0.1582592211285701</v>
       </c>
       <c r="D138">
-        <v>0.1222942374926879</v>
+        <v>0.1455907091209191</v>
       </c>
       <c r="E138">
-        <v>0.1264895921703019</v>
+        <v>0.1519419953117224</v>
       </c>
       <c r="F138">
-        <v>0.09002686389735445</v>
+        <v>0.1049704992813164</v>
       </c>
       <c r="G138">
-        <v>0.1249659974636931</v>
+        <v>0.1480823937754487</v>
       </c>
       <c r="H138">
-        <v>0.1340811948811834</v>
-      </c>
-      <c r="I138">
-        <v>0.1481875737878433</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1544868745144979</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1423560475441578</v>
+        <v>0.1663682115200772</v>
       </c>
       <c r="C139">
-        <v>0.120545450452951</v>
+        <v>0.1373973685000181</v>
       </c>
       <c r="D139">
-        <v>0.1182901536226017</v>
+        <v>0.1351206675719132</v>
       </c>
       <c r="E139">
-        <v>0.1264973526948983</v>
+        <v>0.1462415775422188</v>
       </c>
       <c r="F139">
-        <v>0.1116790493128717</v>
+        <v>0.1290325228823457</v>
       </c>
       <c r="G139">
-        <v>0.1231523908901373</v>
+        <v>0.1355179058487888</v>
       </c>
       <c r="H139">
-        <v>0.1303479783193052</v>
-      </c>
-      <c r="I139">
-        <v>0.1271315771630771</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1503217461346382</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.122948886268614</v>
+        <v>0.1390634182068385</v>
       </c>
       <c r="C140">
-        <v>0.1231834623486012</v>
+        <v>0.1402844380078858</v>
       </c>
       <c r="D140">
-        <v>0.1232215236899083</v>
+        <v>0.1439024114792421</v>
       </c>
       <c r="E140">
-        <v>0.1329899792362697</v>
+        <v>0.1572351014559007</v>
       </c>
       <c r="F140">
-        <v>0.09962966895146802</v>
+        <v>0.1164307746510152</v>
       </c>
       <c r="G140">
-        <v>0.134475326541563</v>
+        <v>0.1494466407650214</v>
       </c>
       <c r="H140">
-        <v>0.1354140192683809</v>
-      </c>
-      <c r="I140">
-        <v>0.1281371336951949</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.1536372154340964</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1146356066656535</v>
+        <v>0.1337123723938388</v>
       </c>
       <c r="C141">
-        <v>0.1641430420296472</v>
+        <v>0.1917375379670543</v>
       </c>
       <c r="D141">
-        <v>0.09599423240552764</v>
+        <v>0.1123848787223998</v>
       </c>
       <c r="E141">
-        <v>0.0993375019060387</v>
+        <v>0.1209771818582291</v>
       </c>
       <c r="F141">
-        <v>0.05252331258631943</v>
+        <v>0.06002428097205736</v>
       </c>
       <c r="G141">
-        <v>0.1865766210834904</v>
+        <v>0.2113737145203335</v>
       </c>
       <c r="H141">
-        <v>0.1485432803205013</v>
-      </c>
-      <c r="I141">
-        <v>0.138246403002822</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.1697900335660871</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1133549811748191</v>
+        <v>0.1273437065268168</v>
       </c>
       <c r="C142">
-        <v>0.09755923938155722</v>
+        <v>0.1090062997451418</v>
       </c>
       <c r="D142">
-        <v>0.190811486076116</v>
+        <v>0.2172185101758127</v>
       </c>
       <c r="E142">
-        <v>0.1836004225944656</v>
+        <v>0.2084884820909663</v>
       </c>
       <c r="F142">
-        <v>0.09520779218180583</v>
+        <v>0.1056874710664684</v>
       </c>
       <c r="G142">
-        <v>0.1080174570046456</v>
+        <v>0.1144301732006772</v>
       </c>
       <c r="H142">
-        <v>0.1055273791659447</v>
-      </c>
-      <c r="I142">
-        <v>0.1059212424206458</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.117825357194117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.173688961207774</v>
+        <v>0.1902155299106331</v>
       </c>
       <c r="C143">
-        <v>0.09438010222015268</v>
+        <v>0.1066963101546258</v>
       </c>
       <c r="D143">
-        <v>0.1382571601756702</v>
+        <v>0.1564125131054885</v>
       </c>
       <c r="E143">
-        <v>0.161888174043928</v>
+        <v>0.1823156836048823</v>
       </c>
       <c r="F143">
-        <v>0.1406774243182378</v>
+        <v>0.1600932251540025</v>
       </c>
       <c r="G143">
-        <v>0.08786810464716319</v>
+        <v>0.09743918535440245</v>
       </c>
       <c r="H143">
-        <v>0.09374764574415068</v>
-      </c>
-      <c r="I143">
-        <v>0.1094924276429236</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.1068275527159653</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.1471721419850626</v>
+        <v>0.1662478971967687</v>
       </c>
       <c r="C144">
-        <v>0.1374465601659311</v>
+        <v>0.1568033390903567</v>
       </c>
       <c r="D144">
-        <v>0.1191246334636228</v>
+        <v>0.1394192242748192</v>
       </c>
       <c r="E144">
-        <v>0.1163775316602398</v>
+        <v>0.1362134658503518</v>
       </c>
       <c r="F144">
-        <v>0.1104257141068455</v>
+        <v>0.132848657806955</v>
       </c>
       <c r="G144">
-        <v>0.1021524485378059</v>
+        <v>0.1186220520582463</v>
       </c>
       <c r="H144">
-        <v>0.1309508143544173</v>
-      </c>
-      <c r="I144">
-        <v>0.1363501557260751</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.1498453637225025</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1282925528519667</v>
+        <v>0.1472121149023689</v>
       </c>
       <c r="C145">
-        <v>0.1276672962594297</v>
+        <v>0.1475224921235696</v>
       </c>
       <c r="D145">
-        <v>0.1179611288454877</v>
+        <v>0.1373229213112465</v>
       </c>
       <c r="E145">
-        <v>0.1209581887894215</v>
+        <v>0.1411085230823731</v>
       </c>
       <c r="F145">
-        <v>0.1083606572957915</v>
+        <v>0.1298460208925857</v>
       </c>
       <c r="G145">
-        <v>0.1189654851625399</v>
+        <v>0.1396482029235052</v>
       </c>
       <c r="H145">
-        <v>0.135751860258696</v>
-      </c>
-      <c r="I145">
-        <v>0.142042830536667</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.1573397247643509</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1441065594134254</v>
+        <v>0.1640641317520763</v>
       </c>
       <c r="C146">
-        <v>0.1250401398001087</v>
+        <v>0.1440979545171799</v>
       </c>
       <c r="D146">
-        <v>0.1155454592254509</v>
+        <v>0.1324001919560908</v>
       </c>
       <c r="E146">
-        <v>0.1288709480138591</v>
+        <v>0.1478521881898607</v>
       </c>
       <c r="F146">
-        <v>0.1362258881458944</v>
+        <v>0.1585112056390959</v>
       </c>
       <c r="G146">
-        <v>0.1045816482404766</v>
+        <v>0.1187785559682082</v>
       </c>
       <c r="H146">
-        <v>0.1170846530171673</v>
-      </c>
-      <c r="I146">
-        <v>0.1285447041436178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.1342957719774882</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1280850865461016</v>
+        <v>0.1497668329126155</v>
       </c>
       <c r="C147">
-        <v>0.130763526190933</v>
+        <v>0.1499347376321798</v>
       </c>
       <c r="D147">
-        <v>0.1015220913152626</v>
+        <v>0.1195807503628457</v>
       </c>
       <c r="E147">
-        <v>0.1123566953707048</v>
+        <v>0.1283296116945684</v>
       </c>
       <c r="F147">
-        <v>0.1402114369080237</v>
+        <v>0.1647730745399521</v>
       </c>
       <c r="G147">
-        <v>0.1296167152183388</v>
+        <v>0.147544989310538</v>
       </c>
       <c r="H147">
-        <v>0.1243538041731659</v>
-      </c>
-      <c r="I147">
-        <v>0.1330906442774698</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.1400700035473005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.07861693077065769</v>
+        <v>0.08476074059786368</v>
       </c>
       <c r="C148">
-        <v>0.05259407151227973</v>
+        <v>0.05879966226934727</v>
       </c>
       <c r="D148">
-        <v>0.2578393596117168</v>
+        <v>0.279162755122347</v>
       </c>
       <c r="E148">
-        <v>0.1682573779756824</v>
+        <v>0.1820835375387641</v>
       </c>
       <c r="F148">
-        <v>0.2228893120350967</v>
+        <v>0.2416969548391734</v>
       </c>
       <c r="G148">
-        <v>0.06586040826336635</v>
+        <v>0.07100730067877423</v>
       </c>
       <c r="H148">
-        <v>0.07650990258291022</v>
-      </c>
-      <c r="I148">
-        <v>0.07743263724829026</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.08248904895373035</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.1029856679338214</v>
+        <v>0.1124834916967141</v>
       </c>
       <c r="C149">
-        <v>0.1043573362549236</v>
+        <v>0.1153021365619536</v>
       </c>
       <c r="D149">
-        <v>0.2029113217238475</v>
+        <v>0.2235084021272101</v>
       </c>
       <c r="E149">
-        <v>0.1714840102454553</v>
+        <v>0.1925985197807416</v>
       </c>
       <c r="F149">
-        <v>0.1672836641804261</v>
+        <v>0.1997728928712847</v>
       </c>
       <c r="G149">
-        <v>0.06575818263460236</v>
+        <v>0.07353812312882661</v>
       </c>
       <c r="H149">
-        <v>0.07542833124637353</v>
-      </c>
-      <c r="I149">
-        <v>0.1097914857805502</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.08279643383326941</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.07145099453461552</v>
+        <v>0.07561349280520115</v>
       </c>
       <c r="C150">
-        <v>0.07048646736433681</v>
+        <v>0.07399140846608405</v>
       </c>
       <c r="D150">
-        <v>0.2531634067525045</v>
+        <v>0.2783853435308249</v>
       </c>
       <c r="E150">
-        <v>0.1781410423413378</v>
+        <v>0.191948823034322</v>
       </c>
       <c r="F150">
-        <v>0.219033178309636</v>
+        <v>0.2340943918926784</v>
       </c>
       <c r="G150">
-        <v>0.06636157368275536</v>
+        <v>0.07136625340205684</v>
       </c>
       <c r="H150">
-        <v>0.0719307040592643</v>
-      </c>
-      <c r="I150">
-        <v>0.0694326329555497</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.07460028686883279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.05235240982799194</v>
+        <v>0.05482209738738692</v>
       </c>
       <c r="C151">
-        <v>0.08021563415067205</v>
+        <v>0.08635284328277329</v>
       </c>
       <c r="D151">
-        <v>0.2040832065141378</v>
+        <v>0.2206311144804596</v>
       </c>
       <c r="E151">
-        <v>0.3314778240806417</v>
+        <v>0.3639687091351205</v>
       </c>
       <c r="F151">
-        <v>0.08736006109584854</v>
+        <v>0.08752660342902503</v>
       </c>
       <c r="G151">
-        <v>0.1024737069518421</v>
+        <v>0.1110376955999962</v>
       </c>
       <c r="H151">
-        <v>0.06982547290585132</v>
-      </c>
-      <c r="I151">
-        <v>0.07221168447301446</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.07566093668523841</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.08359718213446923</v>
+        <v>0.08897177772570673</v>
       </c>
       <c r="C152">
-        <v>0.06590484559370115</v>
+        <v>0.07035950946350407</v>
       </c>
       <c r="D152">
-        <v>0.2044073348917975</v>
+        <v>0.2262267996031599</v>
       </c>
       <c r="E152">
-        <v>0.1904122471990143</v>
+        <v>0.2103355008840485</v>
       </c>
       <c r="F152">
-        <v>0.2264989047773082</v>
+        <v>0.2467812746719028</v>
       </c>
       <c r="G152">
-        <v>0.07404571616784406</v>
+        <v>0.0767487694134789</v>
       </c>
       <c r="H152">
-        <v>0.07566357323908678</v>
-      </c>
-      <c r="I152">
-        <v>0.07947019599677871</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.08057636823819926</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.05588306584105322</v>
+        <v>0.06033256896782523</v>
       </c>
       <c r="C153">
-        <v>0.06845451606622399</v>
+        <v>0.07390498872008189</v>
       </c>
       <c r="D153">
-        <v>0.2090617387493593</v>
+        <v>0.2258100569073967</v>
       </c>
       <c r="E153">
-        <v>0.2515861339156282</v>
+        <v>0.2735224815375745</v>
       </c>
       <c r="F153">
-        <v>0.1725106262702011</v>
+        <v>0.1875622807137554</v>
       </c>
       <c r="G153">
-        <v>0.09392442273162507</v>
+        <v>0.1014028714720241</v>
       </c>
       <c r="H153">
-        <v>0.07175174557266094</v>
-      </c>
-      <c r="I153">
-        <v>0.07682775085324824</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.07746475168134205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.06656167899558917</v>
+        <v>0.07199983739798528</v>
       </c>
       <c r="C154">
-        <v>0.08241540372094584</v>
+        <v>0.08800054897477781</v>
       </c>
       <c r="D154">
-        <v>0.2139707794454712</v>
+        <v>0.2316298044428963</v>
       </c>
       <c r="E154">
-        <v>0.1598955520889698</v>
+        <v>0.1790251422570033</v>
       </c>
       <c r="F154">
-        <v>0.212849305053235</v>
+        <v>0.2328742913582964</v>
       </c>
       <c r="G154">
-        <v>0.1160824069885967</v>
+        <v>0.1196666878365688</v>
       </c>
       <c r="H154">
-        <v>0.07015337691748882</v>
-      </c>
-      <c r="I154">
-        <v>0.07807149678970343</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.07680368773247206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.1176691984068252</v>
+        <v>0.13759030113055</v>
       </c>
       <c r="C155">
-        <v>0.1277526998700633</v>
+        <v>0.1470648521483806</v>
       </c>
       <c r="D155">
-        <v>0.1296923018497637</v>
+        <v>0.1446886616854026</v>
       </c>
       <c r="E155">
-        <v>0.1251455959259105</v>
+        <v>0.1442570002213203</v>
       </c>
       <c r="F155">
-        <v>0.09300293010705889</v>
+        <v>0.1081630060400362</v>
       </c>
       <c r="G155">
-        <v>0.1414932253831311</v>
+        <v>0.1645172016104765</v>
       </c>
       <c r="H155">
-        <v>0.135123113590758</v>
-      </c>
-      <c r="I155">
-        <v>0.1301209348664893</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.1537189771638339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1326785265305296</v>
+        <v>0.156943623683223</v>
       </c>
       <c r="C156">
-        <v>0.1203762134721317</v>
+        <v>0.1371731292091725</v>
       </c>
       <c r="D156">
-        <v>0.1029956288408324</v>
+        <v>0.1177785601708901</v>
       </c>
       <c r="E156">
-        <v>0.1210307319015043</v>
+        <v>0.139175010850042</v>
       </c>
       <c r="F156">
-        <v>0.1603006829468043</v>
+        <v>0.1835305194116743</v>
       </c>
       <c r="G156">
-        <v>0.111394979242771</v>
+        <v>0.1269532414833179</v>
       </c>
       <c r="H156">
-        <v>0.1208249413549541</v>
-      </c>
-      <c r="I156">
-        <v>0.1303982957104726</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.1384459151916802</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.149102961151628</v>
+        <v>0.1718932659746348</v>
       </c>
       <c r="C157">
-        <v>0.1276627907141009</v>
+        <v>0.1470591957470173</v>
       </c>
       <c r="D157">
-        <v>0.1330704212022665</v>
+        <v>0.1575797289523666</v>
       </c>
       <c r="E157">
-        <v>0.1246806223069617</v>
+        <v>0.1465452168592593</v>
       </c>
       <c r="F157">
-        <v>0.09224257645029925</v>
+        <v>0.1055289705102705</v>
       </c>
       <c r="G157">
-        <v>0.1073196254701684</v>
+        <v>0.1265778592648144</v>
       </c>
       <c r="H157">
-        <v>0.1296699502161231</v>
-      </c>
-      <c r="I157">
-        <v>0.1362510524884522</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.1448157626916373</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.1654336779698929</v>
+        <v>0.1874111524111261</v>
       </c>
       <c r="C158">
-        <v>0.1250686149599564</v>
+        <v>0.141743656483423</v>
       </c>
       <c r="D158">
-        <v>0.1018074141546584</v>
+        <v>0.1163805061924844</v>
       </c>
       <c r="E158">
-        <v>0.1125519355828678</v>
+        <v>0.125067681625619</v>
       </c>
       <c r="F158">
-        <v>0.1851436392531157</v>
+        <v>0.2058382665734067</v>
       </c>
       <c r="G158">
-        <v>0.09284503145673889</v>
+        <v>0.1051268006164248</v>
       </c>
       <c r="H158">
-        <v>0.1085167820613318</v>
-      </c>
-      <c r="I158">
-        <v>0.1086329045614382</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.118431936097516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.09013892127412459</v>
+        <v>0.09910891125908554</v>
       </c>
       <c r="C159">
-        <v>0.09197276656647174</v>
+        <v>0.1006836360479873</v>
       </c>
       <c r="D159">
-        <v>0.1894621492516387</v>
+        <v>0.2124231799515696</v>
       </c>
       <c r="E159">
-        <v>0.1675531673804041</v>
+        <v>0.1902587230665166</v>
       </c>
       <c r="F159">
-        <v>0.1842823731264061</v>
+        <v>0.2050133817671873</v>
       </c>
       <c r="G159">
-        <v>0.07087382252947554</v>
+        <v>0.07644437547781925</v>
       </c>
       <c r="H159">
-        <v>0.1049539635430412</v>
-      </c>
-      <c r="I159">
-        <v>0.1007628363284381</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.1160677924298343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1655327581095724</v>
+        <v>0.1869796724679945</v>
       </c>
       <c r="C160">
-        <v>0.1093532987930266</v>
+        <v>0.1237995592866643</v>
       </c>
       <c r="D160">
-        <v>0.1108641886598418</v>
+        <v>0.1251610431814004</v>
       </c>
       <c r="E160">
-        <v>0.1054458687636045</v>
+        <v>0.1194248802032299</v>
       </c>
       <c r="F160">
-        <v>0.1702856454245246</v>
+        <v>0.1999958655275874</v>
       </c>
       <c r="G160">
-        <v>0.1115472830486737</v>
+        <v>0.12451497885008</v>
       </c>
       <c r="H160">
-        <v>0.1082970684624433</v>
-      </c>
-      <c r="I160">
-        <v>0.1186738887383133</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.1201240004830434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1424103930828171</v>
+        <v>0.1647950509707407</v>
       </c>
       <c r="C161">
-        <v>0.1286758138216028</v>
+        <v>0.1470128874314197</v>
       </c>
       <c r="D161">
-        <v>0.1146968453747489</v>
+        <v>0.130786959442528</v>
       </c>
       <c r="E161">
-        <v>0.1072799601751084</v>
+        <v>0.1238353533397429</v>
       </c>
       <c r="F161">
-        <v>0.1174264306877184</v>
+        <v>0.1342060756579344</v>
       </c>
       <c r="G161">
-        <v>0.1343438269562826</v>
+        <v>0.1529245553911818</v>
       </c>
       <c r="H161">
-        <v>0.1298666020465439</v>
-      </c>
-      <c r="I161">
-        <v>0.125300127855178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.1464391177664525</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.116472035397804</v>
+        <v>0.1350236187066562</v>
       </c>
       <c r="C162">
-        <v>0.1279466804324776</v>
+        <v>0.1470656394474202</v>
       </c>
       <c r="D162">
-        <v>0.1219036863483757</v>
+        <v>0.1425465712672499</v>
       </c>
       <c r="E162">
-        <v>0.1307357892014102</v>
+        <v>0.1536511808809499</v>
       </c>
       <c r="F162">
-        <v>0.1382104142884485</v>
+        <v>0.1605213824846688</v>
       </c>
       <c r="G162">
-        <v>0.1098531704193451</v>
+        <v>0.1260658226967103</v>
       </c>
       <c r="H162">
-        <v>0.1181335955730751</v>
-      </c>
-      <c r="I162">
-        <v>0.1367446283390637</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.1351257845163447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.1291719479018387</v>
+        <v>0.147253842768604</v>
       </c>
       <c r="C163">
-        <v>0.1527225013393004</v>
+        <v>0.1744381867094663</v>
       </c>
       <c r="D163">
-        <v>0.104355835291326</v>
+        <v>0.1172260482915458</v>
       </c>
       <c r="E163">
-        <v>0.1007406958651368</v>
+        <v>0.1118812804032799</v>
       </c>
       <c r="F163">
-        <v>0.06824724639041665</v>
+        <v>0.08198707801064581</v>
       </c>
       <c r="G163">
-        <v>0.1799685400328026</v>
+        <v>0.2021163344566884</v>
       </c>
       <c r="H163">
-        <v>0.1440570635616207</v>
-      </c>
-      <c r="I163">
-        <v>0.1207361696175582</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.1650972293597699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.1215584825782529</v>
+        <v>0.1429983181492235</v>
       </c>
       <c r="C164">
-        <v>0.1191749898460996</v>
+        <v>0.1351946825772383</v>
       </c>
       <c r="D164">
-        <v>0.1200065423403068</v>
+        <v>0.1394280253969551</v>
       </c>
       <c r="E164">
-        <v>0.1317248500079308</v>
+        <v>0.1539821913243308</v>
       </c>
       <c r="F164">
-        <v>0.1483989973744332</v>
+        <v>0.1618010924763095</v>
       </c>
       <c r="G164">
-        <v>0.1026469754627269</v>
+        <v>0.1178373116844243</v>
       </c>
       <c r="H164">
-        <v>0.1258014129557172</v>
-      </c>
-      <c r="I164">
-        <v>0.1306877494345325</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.1487583783915183</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.09991902392273956</v>
+        <v>0.1171221805095656</v>
       </c>
       <c r="C165">
-        <v>0.1301108690428406</v>
+        <v>0.1533120361087303</v>
       </c>
       <c r="D165">
-        <v>0.1567942223800968</v>
+        <v>0.1809368589606418</v>
       </c>
       <c r="E165">
-        <v>0.1534252169110563</v>
+        <v>0.1836395892496652</v>
       </c>
       <c r="F165">
-        <v>0.04583519178981892</v>
+        <v>0.05334984463637526</v>
       </c>
       <c r="G165">
-        <v>0.1025806315012793</v>
+        <v>0.1210835193569289</v>
       </c>
       <c r="H165">
-        <v>0.1602336493690466</v>
-      </c>
-      <c r="I165">
-        <v>0.1511011950831219</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.190555971178093</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.1395069728179097</v>
+        <v>0.1595212549082049</v>
       </c>
       <c r="C166">
-        <v>0.1618046782599562</v>
+        <v>0.1897712908806274</v>
       </c>
       <c r="D166">
-        <v>0.07152319095462646</v>
+        <v>0.08903703147965826</v>
       </c>
       <c r="E166">
-        <v>0.09435386894497405</v>
+        <v>0.109174068332486</v>
       </c>
       <c r="F166">
-        <v>0.1708752610690827</v>
+        <v>0.1998456040951142</v>
       </c>
       <c r="G166">
-        <v>0.06184442194552269</v>
+        <v>0.07496423898304913</v>
       </c>
       <c r="H166">
-        <v>0.158251253998551</v>
-      </c>
-      <c r="I166">
-        <v>0.1418403520093773</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.17768651132086</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1400094139175054</v>
+        <v>0.1611668602103628</v>
       </c>
       <c r="C167">
-        <v>0.1317557537065038</v>
+        <v>0.1507711520211528</v>
       </c>
       <c r="D167">
-        <v>0.1124798171155471</v>
+        <v>0.1293015331093059</v>
       </c>
       <c r="E167">
-        <v>0.1039900552295669</v>
+        <v>0.119950907671648</v>
       </c>
       <c r="F167">
-        <v>0.1452057063283744</v>
+        <v>0.1685182141673445</v>
       </c>
       <c r="G167">
-        <v>0.1076552845245925</v>
+        <v>0.1257975103014124</v>
       </c>
       <c r="H167">
-        <v>0.1260849634048915</v>
-      </c>
-      <c r="I167">
-        <v>0.1328190057730184</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.1444938225187735</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.1308274924266718</v>
+        <v>0.1538471822127171</v>
       </c>
       <c r="C168">
-        <v>0.1236432169466883</v>
+        <v>0.1464771884324796</v>
       </c>
       <c r="D168">
-        <v>0.1069616692078054</v>
+        <v>0.1253146507697742</v>
       </c>
       <c r="E168">
-        <v>0.1180470684522506</v>
+        <v>0.1360067795921472</v>
       </c>
       <c r="F168">
-        <v>0.1466408612365768</v>
+        <v>0.1728353906871183</v>
       </c>
       <c r="G168">
-        <v>0.1024570289530434</v>
+        <v>0.118809964994693</v>
       </c>
       <c r="H168">
-        <v>0.1297959009544161</v>
-      </c>
-      <c r="I168">
-        <v>0.1416267618225475</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.1467088433110708</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.1458248762976081</v>
+        <v>0.1706431687868109</v>
       </c>
       <c r="C169">
-        <v>0.1421403621281829</v>
+        <v>0.1790347366147113</v>
       </c>
       <c r="D169">
-        <v>0.1023327054602892</v>
+        <v>0.1183926570077777</v>
       </c>
       <c r="E169">
-        <v>0.09340916959620282</v>
+        <v>0.1096089202799315</v>
       </c>
       <c r="F169">
-        <v>0.1459981150062453</v>
+        <v>0.1732915891749997</v>
       </c>
       <c r="G169">
-        <v>0.08541831738667477</v>
+        <v>0.1034297049900955</v>
       </c>
       <c r="H169">
-        <v>0.125426964451732</v>
-      </c>
-      <c r="I169">
-        <v>0.1594494896730649</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.1455992231456733</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.09453811034387759</v>
+        <v>0.1082024913793071</v>
       </c>
       <c r="C170">
-        <v>0.1279646559925618</v>
+        <v>0.1500181497716918</v>
       </c>
       <c r="D170">
-        <v>0.1096718330552433</v>
+        <v>0.131062898645227</v>
       </c>
       <c r="E170">
-        <v>0.1155115282999693</v>
+        <v>0.1369180301163599</v>
       </c>
       <c r="F170">
-        <v>0.1724383491562433</v>
+        <v>0.1911023518461659</v>
       </c>
       <c r="G170">
-        <v>0.1152163653285447</v>
+        <v>0.1351616307632457</v>
       </c>
       <c r="H170">
-        <v>0.126799297476508</v>
-      </c>
-      <c r="I170">
-        <v>0.1378598603470521</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.1475344474780024</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1380747046343004</v>
+        <v>0.1660270116524517</v>
       </c>
       <c r="C171">
-        <v>0.1162420660706334</v>
+        <v>0.1303350688206744</v>
       </c>
       <c r="D171">
-        <v>0.1209072897637155</v>
+        <v>0.1434109859487987</v>
       </c>
       <c r="E171">
-        <v>0.1202110400542815</v>
+        <v>0.1276933814483615</v>
       </c>
       <c r="F171">
-        <v>0.1121471197089115</v>
+        <v>0.1351340863119475</v>
       </c>
       <c r="G171">
-        <v>0.1615229840315415</v>
+        <v>0.1806029235877849</v>
       </c>
       <c r="H171">
-        <v>0.1086830266371936</v>
-      </c>
-      <c r="I171">
-        <v>0.1222117690994227</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.1167965422299815</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1352758808162627</v>
+        <v>0.1556406805508781</v>
       </c>
       <c r="C172">
-        <v>0.1202713656577415</v>
+        <v>0.1389779518820028</v>
       </c>
       <c r="D172">
-        <v>0.1160222565258485</v>
+        <v>0.1350287975991271</v>
       </c>
       <c r="E172">
-        <v>0.1236761198146732</v>
+        <v>0.1433245849163406</v>
       </c>
       <c r="F172">
-        <v>0.138953887203766</v>
+        <v>0.1631622649102192</v>
       </c>
       <c r="G172">
-        <v>0.1229063245709168</v>
+        <v>0.1328417061411842</v>
       </c>
       <c r="H172">
-        <v>0.1138950879284488</v>
-      </c>
-      <c r="I172">
-        <v>0.1289990774823426</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.1310240140002479</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.07827170068894458</v>
+        <v>0.09059768518448402</v>
       </c>
       <c r="C173">
-        <v>0.1565339629084369</v>
+        <v>0.1705783412597497</v>
       </c>
       <c r="D173">
-        <v>0.1321028077826077</v>
+        <v>0.1583469238595348</v>
       </c>
       <c r="E173">
-        <v>0.1567380125596232</v>
+        <v>0.1820923657748709</v>
       </c>
       <c r="F173">
-        <v>0.04088877679919501</v>
+        <v>0.04684398412343447</v>
       </c>
       <c r="G173">
-        <v>0.1309059282016206</v>
+        <v>0.1547233674089173</v>
       </c>
       <c r="H173">
-        <v>0.1685824721848951</v>
-      </c>
-      <c r="I173">
-        <v>0.1359763388746768</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.1968173323890088</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1326867522190421</v>
+        <v>0.1578376404898275</v>
       </c>
       <c r="C174">
-        <v>0.1393182716698074</v>
+        <v>0.1600628234943789</v>
       </c>
       <c r="D174">
-        <v>0.1133116816033537</v>
+        <v>0.1306515018809068</v>
       </c>
       <c r="E174">
-        <v>0.1168797487235727</v>
+        <v>0.1358959706895803</v>
       </c>
       <c r="F174">
-        <v>0.1213936657022335</v>
+        <v>0.1485850222000356</v>
       </c>
       <c r="G174">
-        <v>0.09501104065620937</v>
+        <v>0.1041983230468705</v>
       </c>
       <c r="H174">
-        <v>0.1402549903158751</v>
-      </c>
-      <c r="I174">
-        <v>0.1411438491099061</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.1627687181984003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1272504702121536</v>
+        <v>0.1511690247860527</v>
       </c>
       <c r="C175">
-        <v>0.1431202116121392</v>
+        <v>0.1619468344130355</v>
       </c>
       <c r="D175">
-        <v>0.1151388098301471</v>
+        <v>0.1312138557639004</v>
       </c>
       <c r="E175">
-        <v>0.1209995150392426</v>
+        <v>0.138317660192924</v>
       </c>
       <c r="F175">
-        <v>0.1249265942768208</v>
+        <v>0.1541780025682731</v>
       </c>
       <c r="G175">
-        <v>0.08883039195025122</v>
+        <v>0.09455403555073051</v>
       </c>
       <c r="H175">
-        <v>0.1453137265187588</v>
-      </c>
-      <c r="I175">
-        <v>0.1344202805604866</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.1686205867250838</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1088801762901611</v>
+        <v>0.1276485905972366</v>
       </c>
       <c r="C176">
-        <v>0.1489526886156595</v>
+        <v>0.1728323111842663</v>
       </c>
       <c r="D176">
-        <v>0.1101193650822705</v>
+        <v>0.1268493511361808</v>
       </c>
       <c r="E176">
-        <v>0.1139820369027027</v>
+        <v>0.1314006392488846</v>
       </c>
       <c r="F176">
-        <v>0.1018886076325805</v>
+        <v>0.1230159391336814</v>
       </c>
       <c r="G176">
-        <v>0.1248918593016275</v>
+        <v>0.1467721617991152</v>
       </c>
       <c r="H176">
-        <v>0.1471063893974979</v>
-      </c>
-      <c r="I176">
-        <v>0.1441788767775004</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.1714810069006352</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.08206199476129616</v>
+        <v>0.0962274611765455</v>
       </c>
       <c r="C177">
-        <v>0.1841108097625424</v>
+        <v>0.2051717825732259</v>
       </c>
       <c r="D177">
-        <v>0.1202091436659421</v>
+        <v>0.1394596756663596</v>
       </c>
       <c r="E177">
-        <v>0.1420094233518599</v>
+        <v>0.1736028005512631</v>
       </c>
       <c r="F177">
-        <v>0.0461542220797757</v>
+        <v>0.05259405858431975</v>
       </c>
       <c r="G177">
-        <v>0.1171226430156763</v>
+        <v>0.1366675667056309</v>
       </c>
       <c r="H177">
-        <v>0.1626042312935338</v>
-      </c>
-      <c r="I177">
-        <v>0.1457275320693739</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.1962766547426552</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.1100956033330071</v>
+        <v>0.1252727523397258</v>
       </c>
       <c r="C178">
-        <v>0.1284871217474715</v>
+        <v>0.1551219431064331</v>
       </c>
       <c r="D178">
-        <v>0.1105415347909969</v>
+        <v>0.1325298455668805</v>
       </c>
       <c r="E178">
-        <v>0.1252027207700967</v>
+        <v>0.150184763423613</v>
       </c>
       <c r="F178">
-        <v>0.0775406372715693</v>
+        <v>0.09709291691787737</v>
       </c>
       <c r="G178">
-        <v>0.112279991277521</v>
+        <v>0.1328062068310944</v>
       </c>
       <c r="H178">
-        <v>0.1799428635914464</v>
-      </c>
-      <c r="I178">
-        <v>0.1559095272178913</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.2069915718143758</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1214176512837813</v>
+        <v>0.1394929682909912</v>
       </c>
       <c r="C179">
-        <v>0.1314260349322237</v>
+        <v>0.1502179507757204</v>
       </c>
       <c r="D179">
-        <v>0.1282919827145751</v>
+        <v>0.1465641916754161</v>
       </c>
       <c r="E179">
-        <v>0.1401066452408413</v>
+        <v>0.1603547394456949</v>
       </c>
       <c r="F179">
-        <v>0.1053357029959481</v>
+        <v>0.1271861608926382</v>
       </c>
       <c r="G179">
-        <v>0.1109095258680842</v>
+        <v>0.1254939314958409</v>
       </c>
       <c r="H179">
-        <v>0.1321523642990066</v>
-      </c>
-      <c r="I179">
-        <v>0.1303600926655398</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.1506900574236982</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1142333513792859</v>
+        <v>0.1340656952292856</v>
       </c>
       <c r="C180">
-        <v>0.168024914842803</v>
+        <v>0.1926701297780883</v>
       </c>
       <c r="D180">
-        <v>0.1062879010540474</v>
+        <v>0.1256668168579596</v>
       </c>
       <c r="E180">
-        <v>0.1109154279299808</v>
+        <v>0.1294371494403483</v>
       </c>
       <c r="F180">
-        <v>0.1349921911151489</v>
+        <v>0.1583807300612966</v>
       </c>
       <c r="G180">
-        <v>0.1027490083355831</v>
+        <v>0.1124437162989494</v>
       </c>
       <c r="H180">
-        <v>0.127379754777263</v>
-      </c>
-      <c r="I180">
-        <v>0.1354174505658878</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.1473357623340723</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1294090300819707</v>
+        <v>0.147245143231394</v>
       </c>
       <c r="C181">
-        <v>0.1222066757917179</v>
+        <v>0.1388199717416815</v>
       </c>
       <c r="D181">
-        <v>0.1370852196335863</v>
+        <v>0.1570040277043702</v>
       </c>
       <c r="E181">
-        <v>0.1583700255442723</v>
+        <v>0.1800919891658836</v>
       </c>
       <c r="F181">
-        <v>0.1245989538963093</v>
+        <v>0.1407607357771789</v>
       </c>
       <c r="G181">
-        <v>0.08505394284731474</v>
+        <v>0.09830827332864335</v>
       </c>
       <c r="H181">
-        <v>0.1209510281318866</v>
-      </c>
-      <c r="I181">
-        <v>0.1223251240729422</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.1377698590508485</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1035982021422978</v>
+        <v>0.1206065210925818</v>
       </c>
       <c r="C182">
-        <v>0.1341520299065451</v>
+        <v>0.1546089185134562</v>
       </c>
       <c r="D182">
-        <v>0.1207346816875314</v>
+        <v>0.1398497755986658</v>
       </c>
       <c r="E182">
-        <v>0.1156939577075341</v>
+        <v>0.1360699088158867</v>
       </c>
       <c r="F182">
-        <v>0.1212842213938313</v>
+        <v>0.1414530867979853</v>
       </c>
       <c r="G182">
-        <v>0.1408256728112347</v>
+        <v>0.1602909155653569</v>
       </c>
       <c r="H182">
-        <v>0.1281105904489208</v>
-      </c>
-      <c r="I182">
-        <v>0.1356006439021047</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.1471208736160673</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1218144122642263</v>
+        <v>0.1399527597537194</v>
       </c>
       <c r="C183">
-        <v>0.139852054740356</v>
+        <v>0.1605865669788564</v>
       </c>
       <c r="D183">
-        <v>0.1175160564748654</v>
+        <v>0.1358463737520437</v>
       </c>
       <c r="E183">
-        <v>0.135867485441386</v>
+        <v>0.1592863990109534</v>
       </c>
       <c r="F183">
-        <v>0.1191658973041324</v>
+        <v>0.1366306795704476</v>
       </c>
       <c r="G183">
-        <v>0.1235154437622359</v>
+        <v>0.1334448014343618</v>
       </c>
       <c r="H183">
-        <v>0.1169906860297428</v>
-      </c>
-      <c r="I183">
-        <v>0.1252779639830551</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.1342524194996178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1052186928072859</v>
+        <v>0.1229091002267023</v>
       </c>
       <c r="C184">
-        <v>0.1438512597477222</v>
+        <v>0.1659443638416995</v>
       </c>
       <c r="D184">
-        <v>0.1170689080866094</v>
+        <v>0.1359385543698773</v>
       </c>
       <c r="E184">
-        <v>0.1107177908479468</v>
+        <v>0.128744974226029</v>
       </c>
       <c r="F184">
-        <v>0.1325175541482399</v>
+        <v>0.1548975442055672</v>
       </c>
       <c r="G184">
-        <v>0.1043886387346921</v>
+        <v>0.1229021178434779</v>
       </c>
       <c r="H184">
-        <v>0.1473921521191556</v>
-      </c>
-      <c r="I184">
-        <v>0.1388450035083481</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.1686633452866468</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.06900907576087019</v>
+        <v>0.07889840009055461</v>
       </c>
       <c r="C185">
-        <v>0.1851459192818592</v>
+        <v>0.1977798155430756</v>
       </c>
       <c r="D185">
-        <v>0.06989634637735637</v>
+        <v>0.07595766742703408</v>
       </c>
       <c r="E185">
-        <v>0.0727650006006958</v>
+        <v>0.08278970444999799</v>
       </c>
       <c r="F185">
-        <v>0.04117021066271748</v>
+        <v>0.04559318123279148</v>
       </c>
       <c r="G185">
-        <v>0.3459668441175367</v>
+        <v>0.4216220640883559</v>
       </c>
       <c r="H185">
-        <v>0.08987036994799368</v>
-      </c>
-      <c r="I185">
-        <v>0.1261762332509707</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.0973591671681904</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1202947428394851</v>
+        <v>0.134482725603252</v>
       </c>
       <c r="C186">
-        <v>0.1113879719806356</v>
+        <v>0.1256517636199648</v>
       </c>
       <c r="D186">
-        <v>0.1539279686519866</v>
+        <v>0.1729958475063534</v>
       </c>
       <c r="E186">
-        <v>0.1771961759607042</v>
+        <v>0.199422954907667</v>
       </c>
       <c r="F186">
-        <v>0.119308177480073</v>
+        <v>0.1330965865304602</v>
       </c>
       <c r="G186">
-        <v>0.09192583057605561</v>
+        <v>0.1035243713608034</v>
       </c>
       <c r="H186">
-        <v>0.1160292018871259</v>
-      </c>
-      <c r="I186">
-        <v>0.109929930623934</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.1308257504714992</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1298793998413761</v>
+        <v>0.1470278277938706</v>
       </c>
       <c r="C187">
-        <v>0.1135438926399061</v>
+        <v>0.1288827049362095</v>
       </c>
       <c r="D187">
-        <v>0.149939621622993</v>
+        <v>0.1757674613507815</v>
       </c>
       <c r="E187">
-        <v>0.1651418436650717</v>
+        <v>0.189779664437936</v>
       </c>
       <c r="F187">
-        <v>0.1038450277019186</v>
+        <v>0.1164411804717226</v>
       </c>
       <c r="G187">
-        <v>0.0923938511111292</v>
+        <v>0.1044179896938646</v>
       </c>
       <c r="H187">
-        <v>0.1220725281865474</v>
-      </c>
-      <c r="I187">
-        <v>0.1231838352310579</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.1376831713156153</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.08380499656058374</v>
+        <v>0.09071969682068819</v>
       </c>
       <c r="C188">
-        <v>0.08425954644615422</v>
+        <v>0.09281875747686391</v>
       </c>
       <c r="D188">
-        <v>0.2155913738658034</v>
+        <v>0.2377622708013577</v>
       </c>
       <c r="E188">
-        <v>0.1878085142283647</v>
+        <v>0.2077899346544367</v>
       </c>
       <c r="F188">
-        <v>0.1480426110916739</v>
+        <v>0.1591167309470727</v>
       </c>
       <c r="G188">
-        <v>0.1027789684557176</v>
+        <v>0.1147168303950155</v>
       </c>
       <c r="H188">
-        <v>0.0884890136494204</v>
-      </c>
-      <c r="I188">
-        <v>0.08922497570228204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.09707577890456531</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.08570171294013137</v>
+        <v>0.09185259785257702</v>
       </c>
       <c r="C189">
-        <v>0.07696583945321214</v>
+        <v>0.08428331914780952</v>
       </c>
       <c r="D189">
-        <v>0.2052241883736506</v>
+        <v>0.2237295207210888</v>
       </c>
       <c r="E189">
-        <v>0.1400082863440349</v>
+        <v>0.1464423622166129</v>
       </c>
       <c r="F189">
-        <v>0.2481591943341496</v>
+        <v>0.2713056308944299</v>
       </c>
       <c r="G189">
-        <v>0.08228465928592056</v>
+        <v>0.09106352484775469</v>
       </c>
       <c r="H189">
-        <v>0.08375573198699411</v>
-      </c>
-      <c r="I189">
-        <v>0.07790038728190672</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.09132304431972708</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1125445116251539</v>
+        <v>0.1325064143214565</v>
       </c>
       <c r="C190">
-        <v>0.1314253163963559</v>
+        <v>0.1496777841094938</v>
       </c>
       <c r="D190">
-        <v>0.1210141797342241</v>
+        <v>0.1378123910383103</v>
       </c>
       <c r="E190">
-        <v>0.1359343031016281</v>
+        <v>0.1553716917599628</v>
       </c>
       <c r="F190">
-        <v>0.1341405462040372</v>
+        <v>0.1526948019732905</v>
       </c>
       <c r="G190">
-        <v>0.1109607969011773</v>
+        <v>0.1302400530303648</v>
       </c>
       <c r="H190">
-        <v>0.1208001377236152</v>
-      </c>
-      <c r="I190">
-        <v>0.1331802083138084</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.1416968637671213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1448441378952708</v>
+        <v>0.1641417243766824</v>
       </c>
       <c r="C191">
-        <v>0.1388399975980274</v>
+        <v>0.1571331895635648</v>
       </c>
       <c r="D191">
-        <v>0.1048319638626623</v>
+        <v>0.1223704746855724</v>
       </c>
       <c r="E191">
-        <v>0.129563197416014</v>
+        <v>0.1491459132490473</v>
       </c>
       <c r="F191">
-        <v>0.1440019908848467</v>
+        <v>0.1648457038149188</v>
       </c>
       <c r="G191">
-        <v>0.0985434215368815</v>
+        <v>0.1131261011506429</v>
       </c>
       <c r="H191">
-        <v>0.1132772459011218</v>
-      </c>
-      <c r="I191">
-        <v>0.1260980449051756</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.1292368931595717</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1354951171639923</v>
+        <v>0.1588000171373161</v>
       </c>
       <c r="C192">
-        <v>0.1244554177881091</v>
+        <v>0.1479319464877459</v>
       </c>
       <c r="D192">
-        <v>0.09920844876454785</v>
+        <v>0.1154032274685496</v>
       </c>
       <c r="E192">
-        <v>0.1130238262236159</v>
+        <v>0.1309669060633687</v>
       </c>
       <c r="F192">
-        <v>0.1619523323802893</v>
+        <v>0.1817896860210404</v>
       </c>
       <c r="G192">
-        <v>0.1097178018240325</v>
+        <v>0.1265194025941816</v>
       </c>
       <c r="H192">
-        <v>0.1199376388888749</v>
-      </c>
-      <c r="I192">
-        <v>0.136209416966538</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.1385888142277977</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.138202455049671</v>
+        <v>0.1520175643820338</v>
       </c>
       <c r="C193">
-        <v>0.1191972173232412</v>
+        <v>0.1382650187313625</v>
       </c>
       <c r="D193">
-        <v>0.1237276570592312</v>
+        <v>0.1445051155519133</v>
       </c>
       <c r="E193">
-        <v>0.1424630619556427</v>
+        <v>0.1692185818437436</v>
       </c>
       <c r="F193">
-        <v>0.1434358789440032</v>
+        <v>0.1550060171157833</v>
       </c>
       <c r="G193">
-        <v>0.09542056226898366</v>
+        <v>0.1108527949180462</v>
       </c>
       <c r="H193">
-        <v>0.1145380969373052</v>
-      </c>
-      <c r="I193">
-        <v>0.1230150704619219</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.1301349074571173</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.1354997831461428</v>
+        <v>0.1581326510119297</v>
       </c>
       <c r="C194">
-        <v>0.0940500664978285</v>
+        <v>0.1059528966301652</v>
       </c>
       <c r="D194">
-        <v>0.1512817611944393</v>
+        <v>0.1724434478235252</v>
       </c>
       <c r="E194">
-        <v>0.1367470630317026</v>
+        <v>0.156527692885927</v>
       </c>
       <c r="F194">
-        <v>0.145880469559471</v>
+        <v>0.1679350104507525</v>
       </c>
       <c r="G194">
-        <v>0.0962128431126193</v>
+        <v>0.1095449134038436</v>
       </c>
       <c r="H194">
-        <v>0.1105800859230477</v>
-      </c>
-      <c r="I194">
-        <v>0.1297479275347487</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.1294633877938568</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.08332690712644338</v>
+        <v>0.08983401363275867</v>
       </c>
       <c r="C195">
-        <v>0.0754905553995541</v>
+        <v>0.08561184632063806</v>
       </c>
       <c r="D195">
-        <v>0.2048570136545527</v>
+        <v>0.2322911502601579</v>
       </c>
       <c r="E195">
-        <v>0.1064334728526505</v>
+        <v>0.1244591614749344</v>
       </c>
       <c r="F195">
-        <v>0.2343508007773825</v>
+        <v>0.2697138749164052</v>
       </c>
       <c r="G195">
-        <v>0.09428862509615521</v>
+        <v>0.1075593976203986</v>
       </c>
       <c r="H195">
-        <v>0.08195741765924175</v>
-      </c>
-      <c r="I195">
-        <v>0.1192952074340198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.0905305557747072</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.1166717400579006</v>
+        <v>0.1333748951012378</v>
       </c>
       <c r="C196">
-        <v>0.1200781068028239</v>
+        <v>0.1387981327830775</v>
       </c>
       <c r="D196">
-        <v>0.1226090844184136</v>
+        <v>0.1426329356921087</v>
       </c>
       <c r="E196">
-        <v>0.1259871760948111</v>
+        <v>0.1476863384850017</v>
       </c>
       <c r="F196">
-        <v>0.1372508997496614</v>
+        <v>0.1622889684292639</v>
       </c>
       <c r="G196">
-        <v>0.113383250692502</v>
+        <v>0.1310603478058088</v>
       </c>
       <c r="H196">
-        <v>0.1274017454240772</v>
-      </c>
-      <c r="I196">
-        <v>0.1366179967598103</v>
+        <v>0.1441583817035018</v>
       </c>
     </row>
   </sheetData>
